--- a/images/demo_file/newProducts1.xlsx
+++ b/images/demo_file/newProducts1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Frame\SputnikPro\version2_2__3_12\public\images\demo_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A5F67C-4B2D-4AE4-BCF1-48E9D1C4DDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FDE779-EBEC-4D3E-BACF-6C930284485F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{2DA5CB0E-B45C-4F0E-85D7-13ED1808AAB5}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$901</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -530,7 +530,7 @@
   <dimension ref="A1:P901"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B557" sqref="B557"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -45591,6 +45591,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P1" xr:uid="{39BC329D-FEAE-4DD7-AC12-FD8CC6C2F9D9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/images/demo_file/newProducts1.xlsx
+++ b/images/demo_file/newProducts1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Frame\SputnikPro\version2_2__3_12\public\images\demo_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FDE779-EBEC-4D3E-BACF-6C930284485F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{067AD4AE-9AC8-44A9-9443-8988CC9B6F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{2DA5CB0E-B45C-4F0E-85D7-13ED1808AAB5}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$901</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -134,9 +134,6 @@
     <t>Бренд</t>
   </si>
   <si>
-    <t>Тип продукции</t>
-  </si>
-  <si>
     <t>SKU</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>Магазин</t>
+  </si>
+  <si>
+    <t>Категория</t>
   </si>
 </sst>
 </file>
@@ -530,14 +530,14 @@
   <dimension ref="A1:P901"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.54296875" customWidth="1"/>
     <col min="2" max="2" width="14.36328125" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.35">
@@ -592,10 +592,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -642,10 +642,10 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -692,10 +692,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -742,10 +742,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -842,10 +842,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -892,10 +892,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -942,10 +942,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -992,10 +992,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -1042,10 +1042,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -1092,10 +1092,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
@@ -1142,10 +1142,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
@@ -1192,10 +1192,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
@@ -1242,10 +1242,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -1292,10 +1292,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
@@ -1342,10 +1342,10 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
@@ -1442,10 +1442,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
         <v>30</v>
@@ -1542,10 +1542,10 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
@@ -1592,10 +1592,10 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1642,10 +1642,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -1692,10 +1692,10 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -1742,10 +1742,10 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
@@ -1792,10 +1792,10 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
@@ -1842,10 +1842,10 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
@@ -1892,10 +1892,10 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
@@ -1942,10 +1942,10 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -1992,10 +1992,10 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
         <v>29</v>
@@ -2042,10 +2042,10 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
@@ -2092,10 +2092,10 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -2192,10 +2192,10 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -2292,10 +2292,10 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -2342,10 +2342,10 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -2392,10 +2392,10 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
@@ -2442,10 +2442,10 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -2492,10 +2492,10 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -2542,10 +2542,10 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -2592,10 +2592,10 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -2642,10 +2642,10 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -2692,10 +2692,10 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -2742,10 +2742,10 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -2792,10 +2792,10 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -2842,10 +2842,10 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -2892,10 +2892,10 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -2942,10 +2942,10 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -2992,10 +2992,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -3042,10 +3042,10 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B53" t="s">
         <v>4</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B54" t="s">
         <v>4</v>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B55" t="s">
         <v>4</v>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B57" t="s">
         <v>4</v>
@@ -3392,7 +3392,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B58" t="s">
         <v>4</v>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B59" t="s">
         <v>4</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B60" t="s">
         <v>4</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B61" t="s">
         <v>4</v>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B62" t="s">
         <v>4</v>
@@ -3642,7 +3642,7 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B63" t="s">
         <v>4</v>
@@ -3692,7 +3692,7 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B64" t="s">
         <v>4</v>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B65" t="s">
         <v>4</v>
@@ -3792,7 +3792,7 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
@@ -3842,7 +3842,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B69" t="s">
         <v>4</v>
@@ -3992,7 +3992,7 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B70" t="s">
         <v>4</v>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B71" t="s">
         <v>4</v>
@@ -4092,7 +4092,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B72" t="s">
         <v>4</v>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B73" t="s">
         <v>4</v>
@@ -4192,7 +4192,7 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B74" t="s">
         <v>4</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B75" t="s">
         <v>4</v>
@@ -4292,7 +4292,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B76" t="s">
         <v>4</v>
@@ -4342,7 +4342,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B77" t="s">
         <v>4</v>
@@ -4392,7 +4392,7 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B78" t="s">
         <v>4</v>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B79" t="s">
         <v>4</v>
@@ -4492,7 +4492,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B80" t="s">
         <v>4</v>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B81" t="s">
         <v>4</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
@@ -4642,7 +4642,7 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B83" t="s">
         <v>4</v>
@@ -4692,7 +4692,7 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B84" t="s">
         <v>4</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B85" t="s">
         <v>4</v>
@@ -4792,7 +4792,7 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B86" t="s">
         <v>4</v>
@@ -4842,7 +4842,7 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B87" t="s">
         <v>4</v>
@@ -4892,7 +4892,7 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B88" t="s">
         <v>4</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B89" t="s">
         <v>4</v>
@@ -4992,7 +4992,7 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B90" t="s">
         <v>4</v>
@@ -5042,7 +5042,7 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B91" t="s">
         <v>4</v>
@@ -5092,7 +5092,7 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B92" t="s">
         <v>4</v>
@@ -5142,7 +5142,7 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B93" t="s">
         <v>4</v>
@@ -5192,7 +5192,7 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B94" t="s">
         <v>4</v>
@@ -5242,7 +5242,7 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B95" t="s">
         <v>4</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B96" t="s">
         <v>4</v>
@@ -5342,7 +5342,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B97" t="s">
         <v>4</v>
@@ -5392,7 +5392,7 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B98" t="s">
         <v>4</v>
@@ -5442,7 +5442,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B99" t="s">
         <v>4</v>
@@ -5492,7 +5492,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B100" t="s">
         <v>4</v>
@@ -5542,7 +5542,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B101" t="s">
         <v>4</v>
@@ -5592,10 +5592,10 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B102" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C102" t="s">
         <v>27</v>
@@ -5642,10 +5642,10 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B103" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
@@ -5692,10 +5692,10 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B104" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
@@ -5742,10 +5742,10 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B105" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C105" t="s">
         <v>27</v>
@@ -5792,10 +5792,10 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B106" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C106" t="s">
         <v>27</v>
@@ -5842,10 +5842,10 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B107" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C107" t="s">
         <v>27</v>
@@ -5892,10 +5892,10 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B108" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C108" t="s">
         <v>27</v>
@@ -5942,10 +5942,10 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B109" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C109" t="s">
         <v>27</v>
@@ -5992,10 +5992,10 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B110" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C110" t="s">
         <v>27</v>
@@ -6042,10 +6042,10 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B111" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C111" t="s">
         <v>27</v>
@@ -6092,10 +6092,10 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B112" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C112" t="s">
         <v>30</v>
@@ -6142,10 +6142,10 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B113" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C113" t="s">
         <v>30</v>
@@ -6192,10 +6192,10 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B114" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C114" t="s">
         <v>30</v>
@@ -6242,10 +6242,10 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B115" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C115" t="s">
         <v>30</v>
@@ -6292,10 +6292,10 @@
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B116" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C116" t="s">
         <v>30</v>
@@ -6342,10 +6342,10 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B117" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C117" t="s">
         <v>30</v>
@@ -6392,10 +6392,10 @@
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B118" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C118" t="s">
         <v>30</v>
@@ -6442,10 +6442,10 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B119" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C119" t="s">
         <v>30</v>
@@ -6492,10 +6492,10 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B120" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C120" t="s">
         <v>30</v>
@@ -6542,10 +6542,10 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B121" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C121" t="s">
         <v>30</v>
@@ -6592,10 +6592,10 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B122" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C122" t="s">
         <v>29</v>
@@ -6642,10 +6642,10 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B123" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C123" t="s">
         <v>29</v>
@@ -6692,10 +6692,10 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B124" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C124" t="s">
         <v>29</v>
@@ -6742,10 +6742,10 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B125" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C125" t="s">
         <v>29</v>
@@ -6792,10 +6792,10 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B126" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C126" t="s">
         <v>29</v>
@@ -6842,10 +6842,10 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B127" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C127" t="s">
         <v>29</v>
@@ -6892,10 +6892,10 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B128" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C128" t="s">
         <v>29</v>
@@ -6942,10 +6942,10 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B129" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C129" t="s">
         <v>29</v>
@@ -6992,10 +6992,10 @@
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B130" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C130" t="s">
         <v>29</v>
@@ -7042,10 +7042,10 @@
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B131" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C131" t="s">
         <v>29</v>
@@ -7092,10 +7092,10 @@
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B132" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C132" t="s">
         <v>4</v>
@@ -7142,10 +7142,10 @@
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B133" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C133" t="s">
         <v>4</v>
@@ -7192,10 +7192,10 @@
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B134" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C134" t="s">
         <v>4</v>
@@ -7242,10 +7242,10 @@
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B135" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C135" t="s">
         <v>4</v>
@@ -7292,10 +7292,10 @@
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B136" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C136" t="s">
         <v>4</v>
@@ -7342,10 +7342,10 @@
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B137" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C137" t="s">
         <v>4</v>
@@ -7392,10 +7392,10 @@
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B138" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C138" t="s">
         <v>4</v>
@@ -7442,10 +7442,10 @@
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B139" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C139" t="s">
         <v>4</v>
@@ -7492,10 +7492,10 @@
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B140" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C140" t="s">
         <v>4</v>
@@ -7542,10 +7542,10 @@
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B141" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C141" t="s">
         <v>4</v>
@@ -7592,10 +7592,10 @@
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B142" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -7642,10 +7642,10 @@
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B143" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -7692,10 +7692,10 @@
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B144" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -7742,10 +7742,10 @@
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B145" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -7792,10 +7792,10 @@
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B146" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -7842,10 +7842,10 @@
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B147" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -7892,10 +7892,10 @@
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B148" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -7942,10 +7942,10 @@
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B149" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -7992,10 +7992,10 @@
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B150" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -8042,10 +8042,10 @@
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B151" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -8092,10 +8092,10 @@
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B152" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C152" t="s">
         <v>27</v>
@@ -8142,10 +8142,10 @@
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B153" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C153" t="s">
         <v>27</v>
@@ -8192,10 +8192,10 @@
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B154" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C154" t="s">
         <v>27</v>
@@ -8242,10 +8242,10 @@
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B155" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C155" t="s">
         <v>27</v>
@@ -8292,10 +8292,10 @@
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B156" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C156" t="s">
         <v>27</v>
@@ -8342,10 +8342,10 @@
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B157" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C157" t="s">
         <v>27</v>
@@ -8392,10 +8392,10 @@
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B158" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C158" t="s">
         <v>27</v>
@@ -8442,10 +8442,10 @@
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B159" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C159" t="s">
         <v>27</v>
@@ -8492,10 +8492,10 @@
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B160" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C160" t="s">
         <v>27</v>
@@ -8542,10 +8542,10 @@
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B161" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C161" t="s">
         <v>27</v>
@@ -8592,10 +8592,10 @@
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B162" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C162" t="s">
         <v>30</v>
@@ -8642,10 +8642,10 @@
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B163" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C163" t="s">
         <v>30</v>
@@ -8692,10 +8692,10 @@
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B164" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C164" t="s">
         <v>30</v>
@@ -8742,10 +8742,10 @@
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B165" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C165" t="s">
         <v>30</v>
@@ -8792,10 +8792,10 @@
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C166" t="s">
         <v>30</v>
@@ -8842,10 +8842,10 @@
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B167" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C167" t="s">
         <v>30</v>
@@ -8892,10 +8892,10 @@
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B168" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C168" t="s">
         <v>30</v>
@@ -8942,10 +8942,10 @@
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C169" t="s">
         <v>30</v>
@@ -8992,10 +8992,10 @@
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B170" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C170" t="s">
         <v>30</v>
@@ -9042,10 +9042,10 @@
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B171" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C171" t="s">
         <v>30</v>
@@ -9092,10 +9092,10 @@
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B172" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C172" t="s">
         <v>29</v>
@@ -9142,10 +9142,10 @@
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B173" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C173" t="s">
         <v>29</v>
@@ -9192,10 +9192,10 @@
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B174" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C174" t="s">
         <v>29</v>
@@ -9242,10 +9242,10 @@
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B175" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C175" t="s">
         <v>29</v>
@@ -9292,10 +9292,10 @@
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B176" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C176" t="s">
         <v>29</v>
@@ -9342,10 +9342,10 @@
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B177" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C177" t="s">
         <v>29</v>
@@ -9392,10 +9392,10 @@
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B178" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C178" t="s">
         <v>29</v>
@@ -9442,10 +9442,10 @@
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B179" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C179" t="s">
         <v>29</v>
@@ -9492,10 +9492,10 @@
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B180" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C180" t="s">
         <v>29</v>
@@ -9542,10 +9542,10 @@
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B181" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C181" t="s">
         <v>29</v>
@@ -9592,10 +9592,10 @@
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B182" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C182" t="s">
         <v>4</v>
@@ -9642,10 +9642,10 @@
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B183" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C183" t="s">
         <v>4</v>
@@ -9692,10 +9692,10 @@
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B184" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C184" t="s">
         <v>4</v>
@@ -9742,10 +9742,10 @@
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B185" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C185" t="s">
         <v>4</v>
@@ -9792,10 +9792,10 @@
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B186" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C186" t="s">
         <v>4</v>
@@ -9842,10 +9842,10 @@
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B187" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C187" t="s">
         <v>4</v>
@@ -9892,10 +9892,10 @@
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B188" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C188" t="s">
         <v>4</v>
@@ -9942,10 +9942,10 @@
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B189" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C189" t="s">
         <v>4</v>
@@ -9992,10 +9992,10 @@
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B190" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C190" t="s">
         <v>4</v>
@@ -10042,10 +10042,10 @@
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B191" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C191" t="s">
         <v>4</v>
@@ -10092,10 +10092,10 @@
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B192" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -10142,10 +10142,10 @@
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B193" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -10192,10 +10192,10 @@
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B194" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -10242,10 +10242,10 @@
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B195" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -10292,10 +10292,10 @@
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B196" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -10342,10 +10342,10 @@
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B197" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -10392,10 +10392,10 @@
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B198" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -10442,10 +10442,10 @@
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B199" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -10492,10 +10492,10 @@
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B200" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -10542,10 +10542,10 @@
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B201" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -10592,7 +10592,7 @@
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B202" t="s">
         <v>4</v>
@@ -10642,7 +10642,7 @@
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B203" t="s">
         <v>4</v>
@@ -10692,7 +10692,7 @@
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B204" t="s">
         <v>4</v>
@@ -10742,7 +10742,7 @@
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B205" t="s">
         <v>4</v>
@@ -10792,7 +10792,7 @@
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B206" t="s">
         <v>4</v>
@@ -10842,7 +10842,7 @@
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B207" t="s">
         <v>4</v>
@@ -10892,7 +10892,7 @@
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B208" t="s">
         <v>4</v>
@@ -10942,7 +10942,7 @@
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B209" t="s">
         <v>4</v>
@@ -10992,7 +10992,7 @@
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B210" t="s">
         <v>4</v>
@@ -11042,7 +11042,7 @@
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B211" t="s">
         <v>4</v>
@@ -11092,7 +11092,7 @@
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B212" t="s">
         <v>4</v>
@@ -11142,7 +11142,7 @@
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B213" t="s">
         <v>4</v>
@@ -11192,7 +11192,7 @@
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B214" t="s">
         <v>4</v>
@@ -11242,7 +11242,7 @@
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B215" t="s">
         <v>4</v>
@@ -11292,7 +11292,7 @@
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B216" t="s">
         <v>4</v>
@@ -11342,7 +11342,7 @@
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B217" t="s">
         <v>4</v>
@@ -11392,7 +11392,7 @@
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B218" t="s">
         <v>4</v>
@@ -11442,7 +11442,7 @@
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B219" t="s">
         <v>4</v>
@@ -11492,7 +11492,7 @@
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B220" t="s">
         <v>4</v>
@@ -11542,7 +11542,7 @@
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B221" t="s">
         <v>4</v>
@@ -11592,7 +11592,7 @@
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B222" t="s">
         <v>4</v>
@@ -11642,7 +11642,7 @@
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B223" t="s">
         <v>4</v>
@@ -11692,7 +11692,7 @@
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B224" t="s">
         <v>4</v>
@@ -11742,7 +11742,7 @@
     </row>
     <row r="225" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B225" t="s">
         <v>4</v>
@@ -11792,7 +11792,7 @@
     </row>
     <row r="226" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B226" t="s">
         <v>4</v>
@@ -11842,7 +11842,7 @@
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B227" t="s">
         <v>4</v>
@@ -11892,7 +11892,7 @@
     </row>
     <row r="228" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B228" t="s">
         <v>4</v>
@@ -11942,7 +11942,7 @@
     </row>
     <row r="229" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B229" t="s">
         <v>4</v>
@@ -11992,7 +11992,7 @@
     </row>
     <row r="230" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B230" t="s">
         <v>4</v>
@@ -12042,7 +12042,7 @@
     </row>
     <row r="231" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B231" t="s">
         <v>4</v>
@@ -12092,7 +12092,7 @@
     </row>
     <row r="232" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B232" t="s">
         <v>4</v>
@@ -12142,7 +12142,7 @@
     </row>
     <row r="233" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B233" t="s">
         <v>4</v>
@@ -12192,7 +12192,7 @@
     </row>
     <row r="234" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B234" t="s">
         <v>4</v>
@@ -12242,7 +12242,7 @@
     </row>
     <row r="235" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B235" t="s">
         <v>4</v>
@@ -12292,7 +12292,7 @@
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B236" t="s">
         <v>4</v>
@@ -12342,7 +12342,7 @@
     </row>
     <row r="237" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B237" t="s">
         <v>4</v>
@@ -12392,7 +12392,7 @@
     </row>
     <row r="238" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B238" t="s">
         <v>4</v>
@@ -12442,7 +12442,7 @@
     </row>
     <row r="239" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B239" t="s">
         <v>4</v>
@@ -12492,7 +12492,7 @@
     </row>
     <row r="240" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B240" t="s">
         <v>4</v>
@@ -12542,7 +12542,7 @@
     </row>
     <row r="241" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B241" t="s">
         <v>4</v>
@@ -12592,7 +12592,7 @@
     </row>
     <row r="242" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B242" t="s">
         <v>4</v>
@@ -12642,7 +12642,7 @@
     </row>
     <row r="243" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B243" t="s">
         <v>4</v>
@@ -12692,7 +12692,7 @@
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B244" t="s">
         <v>4</v>
@@ -12742,7 +12742,7 @@
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B245" t="s">
         <v>4</v>
@@ -12792,7 +12792,7 @@
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B246" t="s">
         <v>4</v>
@@ -12842,7 +12842,7 @@
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B247" t="s">
         <v>4</v>
@@ -12892,7 +12892,7 @@
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B248" t="s">
         <v>4</v>
@@ -12942,7 +12942,7 @@
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B249" t="s">
         <v>4</v>
@@ -12992,7 +12992,7 @@
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B250" t="s">
         <v>4</v>
@@ -13042,7 +13042,7 @@
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B251" t="s">
         <v>4</v>
@@ -13092,10 +13092,10 @@
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
+        <v>36</v>
+      </c>
+      <c r="B252" t="s">
         <v>37</v>
-      </c>
-      <c r="B252" t="s">
-        <v>31</v>
       </c>
       <c r="C252" t="s">
         <v>27</v>
@@ -13142,10 +13142,10 @@
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
+        <v>36</v>
+      </c>
+      <c r="B253" t="s">
         <v>37</v>
-      </c>
-      <c r="B253" t="s">
-        <v>31</v>
       </c>
       <c r="C253" t="s">
         <v>27</v>
@@ -13192,10 +13192,10 @@
     </row>
     <row r="254" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
+        <v>36</v>
+      </c>
+      <c r="B254" t="s">
         <v>37</v>
-      </c>
-      <c r="B254" t="s">
-        <v>31</v>
       </c>
       <c r="C254" t="s">
         <v>27</v>
@@ -13242,10 +13242,10 @@
     </row>
     <row r="255" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
+        <v>36</v>
+      </c>
+      <c r="B255" t="s">
         <v>37</v>
-      </c>
-      <c r="B255" t="s">
-        <v>31</v>
       </c>
       <c r="C255" t="s">
         <v>27</v>
@@ -13292,10 +13292,10 @@
     </row>
     <row r="256" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
+        <v>36</v>
+      </c>
+      <c r="B256" t="s">
         <v>37</v>
-      </c>
-      <c r="B256" t="s">
-        <v>31</v>
       </c>
       <c r="C256" t="s">
         <v>27</v>
@@ -13342,10 +13342,10 @@
     </row>
     <row r="257" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
+        <v>36</v>
+      </c>
+      <c r="B257" t="s">
         <v>37</v>
-      </c>
-      <c r="B257" t="s">
-        <v>31</v>
       </c>
       <c r="C257" t="s">
         <v>27</v>
@@ -13392,10 +13392,10 @@
     </row>
     <row r="258" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
+        <v>36</v>
+      </c>
+      <c r="B258" t="s">
         <v>37</v>
-      </c>
-      <c r="B258" t="s">
-        <v>31</v>
       </c>
       <c r="C258" t="s">
         <v>27</v>
@@ -13442,10 +13442,10 @@
     </row>
     <row r="259" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
+        <v>36</v>
+      </c>
+      <c r="B259" t="s">
         <v>37</v>
-      </c>
-      <c r="B259" t="s">
-        <v>31</v>
       </c>
       <c r="C259" t="s">
         <v>27</v>
@@ -13492,10 +13492,10 @@
     </row>
     <row r="260" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
+        <v>36</v>
+      </c>
+      <c r="B260" t="s">
         <v>37</v>
-      </c>
-      <c r="B260" t="s">
-        <v>31</v>
       </c>
       <c r="C260" t="s">
         <v>27</v>
@@ -13542,10 +13542,10 @@
     </row>
     <row r="261" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
+        <v>36</v>
+      </c>
+      <c r="B261" t="s">
         <v>37</v>
-      </c>
-      <c r="B261" t="s">
-        <v>31</v>
       </c>
       <c r="C261" t="s">
         <v>27</v>
@@ -13592,10 +13592,10 @@
     </row>
     <row r="262" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
+        <v>36</v>
+      </c>
+      <c r="B262" t="s">
         <v>37</v>
-      </c>
-      <c r="B262" t="s">
-        <v>31</v>
       </c>
       <c r="C262" t="s">
         <v>30</v>
@@ -13642,10 +13642,10 @@
     </row>
     <row r="263" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
+        <v>36</v>
+      </c>
+      <c r="B263" t="s">
         <v>37</v>
-      </c>
-      <c r="B263" t="s">
-        <v>31</v>
       </c>
       <c r="C263" t="s">
         <v>30</v>
@@ -13692,10 +13692,10 @@
     </row>
     <row r="264" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
+        <v>36</v>
+      </c>
+      <c r="B264" t="s">
         <v>37</v>
-      </c>
-      <c r="B264" t="s">
-        <v>31</v>
       </c>
       <c r="C264" t="s">
         <v>30</v>
@@ -13742,10 +13742,10 @@
     </row>
     <row r="265" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
+        <v>36</v>
+      </c>
+      <c r="B265" t="s">
         <v>37</v>
-      </c>
-      <c r="B265" t="s">
-        <v>31</v>
       </c>
       <c r="C265" t="s">
         <v>30</v>
@@ -13792,10 +13792,10 @@
     </row>
     <row r="266" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
+        <v>36</v>
+      </c>
+      <c r="B266" t="s">
         <v>37</v>
-      </c>
-      <c r="B266" t="s">
-        <v>31</v>
       </c>
       <c r="C266" t="s">
         <v>30</v>
@@ -13842,10 +13842,10 @@
     </row>
     <row r="267" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
+        <v>36</v>
+      </c>
+      <c r="B267" t="s">
         <v>37</v>
-      </c>
-      <c r="B267" t="s">
-        <v>31</v>
       </c>
       <c r="C267" t="s">
         <v>30</v>
@@ -13892,10 +13892,10 @@
     </row>
     <row r="268" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
+        <v>36</v>
+      </c>
+      <c r="B268" t="s">
         <v>37</v>
-      </c>
-      <c r="B268" t="s">
-        <v>31</v>
       </c>
       <c r="C268" t="s">
         <v>30</v>
@@ -13942,10 +13942,10 @@
     </row>
     <row r="269" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
+        <v>36</v>
+      </c>
+      <c r="B269" t="s">
         <v>37</v>
-      </c>
-      <c r="B269" t="s">
-        <v>31</v>
       </c>
       <c r="C269" t="s">
         <v>30</v>
@@ -13992,10 +13992,10 @@
     </row>
     <row r="270" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
+        <v>36</v>
+      </c>
+      <c r="B270" t="s">
         <v>37</v>
-      </c>
-      <c r="B270" t="s">
-        <v>31</v>
       </c>
       <c r="C270" t="s">
         <v>30</v>
@@ -14042,10 +14042,10 @@
     </row>
     <row r="271" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
+        <v>36</v>
+      </c>
+      <c r="B271" t="s">
         <v>37</v>
-      </c>
-      <c r="B271" t="s">
-        <v>31</v>
       </c>
       <c r="C271" t="s">
         <v>30</v>
@@ -14092,10 +14092,10 @@
     </row>
     <row r="272" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
+        <v>36</v>
+      </c>
+      <c r="B272" t="s">
         <v>37</v>
-      </c>
-      <c r="B272" t="s">
-        <v>31</v>
       </c>
       <c r="C272" t="s">
         <v>29</v>
@@ -14142,10 +14142,10 @@
     </row>
     <row r="273" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
+        <v>36</v>
+      </c>
+      <c r="B273" t="s">
         <v>37</v>
-      </c>
-      <c r="B273" t="s">
-        <v>31</v>
       </c>
       <c r="C273" t="s">
         <v>29</v>
@@ -14192,10 +14192,10 @@
     </row>
     <row r="274" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
+        <v>36</v>
+      </c>
+      <c r="B274" t="s">
         <v>37</v>
-      </c>
-      <c r="B274" t="s">
-        <v>31</v>
       </c>
       <c r="C274" t="s">
         <v>29</v>
@@ -14242,10 +14242,10 @@
     </row>
     <row r="275" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
+        <v>36</v>
+      </c>
+      <c r="B275" t="s">
         <v>37</v>
-      </c>
-      <c r="B275" t="s">
-        <v>31</v>
       </c>
       <c r="C275" t="s">
         <v>29</v>
@@ -14292,10 +14292,10 @@
     </row>
     <row r="276" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
+        <v>36</v>
+      </c>
+      <c r="B276" t="s">
         <v>37</v>
-      </c>
-      <c r="B276" t="s">
-        <v>31</v>
       </c>
       <c r="C276" t="s">
         <v>29</v>
@@ -14342,10 +14342,10 @@
     </row>
     <row r="277" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
+        <v>36</v>
+      </c>
+      <c r="B277" t="s">
         <v>37</v>
-      </c>
-      <c r="B277" t="s">
-        <v>31</v>
       </c>
       <c r="C277" t="s">
         <v>29</v>
@@ -14392,10 +14392,10 @@
     </row>
     <row r="278" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
+        <v>36</v>
+      </c>
+      <c r="B278" t="s">
         <v>37</v>
-      </c>
-      <c r="B278" t="s">
-        <v>31</v>
       </c>
       <c r="C278" t="s">
         <v>29</v>
@@ -14442,10 +14442,10 @@
     </row>
     <row r="279" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
+        <v>36</v>
+      </c>
+      <c r="B279" t="s">
         <v>37</v>
-      </c>
-      <c r="B279" t="s">
-        <v>31</v>
       </c>
       <c r="C279" t="s">
         <v>29</v>
@@ -14492,10 +14492,10 @@
     </row>
     <row r="280" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
+        <v>36</v>
+      </c>
+      <c r="B280" t="s">
         <v>37</v>
-      </c>
-      <c r="B280" t="s">
-        <v>31</v>
       </c>
       <c r="C280" t="s">
         <v>29</v>
@@ -14542,10 +14542,10 @@
     </row>
     <row r="281" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
+        <v>36</v>
+      </c>
+      <c r="B281" t="s">
         <v>37</v>
-      </c>
-      <c r="B281" t="s">
-        <v>31</v>
       </c>
       <c r="C281" t="s">
         <v>29</v>
@@ -14592,10 +14592,10 @@
     </row>
     <row r="282" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
+        <v>36</v>
+      </c>
+      <c r="B282" t="s">
         <v>37</v>
-      </c>
-      <c r="B282" t="s">
-        <v>31</v>
       </c>
       <c r="C282" t="s">
         <v>4</v>
@@ -14642,10 +14642,10 @@
     </row>
     <row r="283" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
+        <v>36</v>
+      </c>
+      <c r="B283" t="s">
         <v>37</v>
-      </c>
-      <c r="B283" t="s">
-        <v>31</v>
       </c>
       <c r="C283" t="s">
         <v>4</v>
@@ -14692,10 +14692,10 @@
     </row>
     <row r="284" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
+        <v>36</v>
+      </c>
+      <c r="B284" t="s">
         <v>37</v>
-      </c>
-      <c r="B284" t="s">
-        <v>31</v>
       </c>
       <c r="C284" t="s">
         <v>4</v>
@@ -14742,10 +14742,10 @@
     </row>
     <row r="285" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
+        <v>36</v>
+      </c>
+      <c r="B285" t="s">
         <v>37</v>
-      </c>
-      <c r="B285" t="s">
-        <v>31</v>
       </c>
       <c r="C285" t="s">
         <v>4</v>
@@ -14792,10 +14792,10 @@
     </row>
     <row r="286" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
+        <v>36</v>
+      </c>
+      <c r="B286" t="s">
         <v>37</v>
-      </c>
-      <c r="B286" t="s">
-        <v>31</v>
       </c>
       <c r="C286" t="s">
         <v>4</v>
@@ -14842,10 +14842,10 @@
     </row>
     <row r="287" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
+        <v>36</v>
+      </c>
+      <c r="B287" t="s">
         <v>37</v>
-      </c>
-      <c r="B287" t="s">
-        <v>31</v>
       </c>
       <c r="C287" t="s">
         <v>4</v>
@@ -14892,10 +14892,10 @@
     </row>
     <row r="288" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
+        <v>36</v>
+      </c>
+      <c r="B288" t="s">
         <v>37</v>
-      </c>
-      <c r="B288" t="s">
-        <v>31</v>
       </c>
       <c r="C288" t="s">
         <v>4</v>
@@ -14942,10 +14942,10 @@
     </row>
     <row r="289" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
+        <v>36</v>
+      </c>
+      <c r="B289" t="s">
         <v>37</v>
-      </c>
-      <c r="B289" t="s">
-        <v>31</v>
       </c>
       <c r="C289" t="s">
         <v>4</v>
@@ -14992,10 +14992,10 @@
     </row>
     <row r="290" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
+        <v>36</v>
+      </c>
+      <c r="B290" t="s">
         <v>37</v>
-      </c>
-      <c r="B290" t="s">
-        <v>31</v>
       </c>
       <c r="C290" t="s">
         <v>4</v>
@@ -15042,10 +15042,10 @@
     </row>
     <row r="291" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
+        <v>36</v>
+      </c>
+      <c r="B291" t="s">
         <v>37</v>
-      </c>
-      <c r="B291" t="s">
-        <v>31</v>
       </c>
       <c r="C291" t="s">
         <v>4</v>
@@ -15092,10 +15092,10 @@
     </row>
     <row r="292" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
+        <v>36</v>
+      </c>
+      <c r="B292" t="s">
         <v>37</v>
-      </c>
-      <c r="B292" t="s">
-        <v>31</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -15142,10 +15142,10 @@
     </row>
     <row r="293" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
+        <v>36</v>
+      </c>
+      <c r="B293" t="s">
         <v>37</v>
-      </c>
-      <c r="B293" t="s">
-        <v>31</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -15192,10 +15192,10 @@
     </row>
     <row r="294" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
+        <v>36</v>
+      </c>
+      <c r="B294" t="s">
         <v>37</v>
-      </c>
-      <c r="B294" t="s">
-        <v>31</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -15242,10 +15242,10 @@
     </row>
     <row r="295" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
+        <v>36</v>
+      </c>
+      <c r="B295" t="s">
         <v>37</v>
-      </c>
-      <c r="B295" t="s">
-        <v>31</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -15292,10 +15292,10 @@
     </row>
     <row r="296" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
+        <v>36</v>
+      </c>
+      <c r="B296" t="s">
         <v>37</v>
-      </c>
-      <c r="B296" t="s">
-        <v>31</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -15342,10 +15342,10 @@
     </row>
     <row r="297" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
+        <v>36</v>
+      </c>
+      <c r="B297" t="s">
         <v>37</v>
-      </c>
-      <c r="B297" t="s">
-        <v>31</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -15392,10 +15392,10 @@
     </row>
     <row r="298" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
+        <v>36</v>
+      </c>
+      <c r="B298" t="s">
         <v>37</v>
-      </c>
-      <c r="B298" t="s">
-        <v>31</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -15442,10 +15442,10 @@
     </row>
     <row r="299" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
+        <v>36</v>
+      </c>
+      <c r="B299" t="s">
         <v>37</v>
-      </c>
-      <c r="B299" t="s">
-        <v>31</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -15492,10 +15492,10 @@
     </row>
     <row r="300" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
+        <v>36</v>
+      </c>
+      <c r="B300" t="s">
         <v>37</v>
-      </c>
-      <c r="B300" t="s">
-        <v>31</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -15542,10 +15542,10 @@
     </row>
     <row r="301" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
+        <v>36</v>
+      </c>
+      <c r="B301" t="s">
         <v>37</v>
-      </c>
-      <c r="B301" t="s">
-        <v>31</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -15595,7 +15595,7 @@
         <v>4</v>
       </c>
       <c r="B302" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C302" t="s">
         <v>27</v>
@@ -15645,7 +15645,7 @@
         <v>4</v>
       </c>
       <c r="B303" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C303" t="s">
         <v>27</v>
@@ -15695,7 +15695,7 @@
         <v>4</v>
       </c>
       <c r="B304" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C304" t="s">
         <v>27</v>
@@ -15745,7 +15745,7 @@
         <v>4</v>
       </c>
       <c r="B305" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C305" t="s">
         <v>27</v>
@@ -15795,7 +15795,7 @@
         <v>4</v>
       </c>
       <c r="B306" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C306" t="s">
         <v>27</v>
@@ -15845,7 +15845,7 @@
         <v>4</v>
       </c>
       <c r="B307" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C307" t="s">
         <v>27</v>
@@ -15895,7 +15895,7 @@
         <v>4</v>
       </c>
       <c r="B308" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C308" t="s">
         <v>27</v>
@@ -15945,7 +15945,7 @@
         <v>4</v>
       </c>
       <c r="B309" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C309" t="s">
         <v>27</v>
@@ -15995,7 +15995,7 @@
         <v>4</v>
       </c>
       <c r="B310" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C310" t="s">
         <v>27</v>
@@ -16045,7 +16045,7 @@
         <v>4</v>
       </c>
       <c r="B311" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C311" t="s">
         <v>27</v>
@@ -16095,7 +16095,7 @@
         <v>4</v>
       </c>
       <c r="B312" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C312" t="s">
         <v>30</v>
@@ -16145,7 +16145,7 @@
         <v>4</v>
       </c>
       <c r="B313" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C313" t="s">
         <v>30</v>
@@ -16195,7 +16195,7 @@
         <v>4</v>
       </c>
       <c r="B314" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C314" t="s">
         <v>30</v>
@@ -16245,7 +16245,7 @@
         <v>4</v>
       </c>
       <c r="B315" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C315" t="s">
         <v>30</v>
@@ -16295,7 +16295,7 @@
         <v>4</v>
       </c>
       <c r="B316" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C316" t="s">
         <v>30</v>
@@ -16345,7 +16345,7 @@
         <v>4</v>
       </c>
       <c r="B317" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C317" t="s">
         <v>30</v>
@@ -16395,7 +16395,7 @@
         <v>4</v>
       </c>
       <c r="B318" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C318" t="s">
         <v>30</v>
@@ -16445,7 +16445,7 @@
         <v>4</v>
       </c>
       <c r="B319" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C319" t="s">
         <v>30</v>
@@ -16495,7 +16495,7 @@
         <v>4</v>
       </c>
       <c r="B320" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C320" t="s">
         <v>30</v>
@@ -16545,7 +16545,7 @@
         <v>4</v>
       </c>
       <c r="B321" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C321" t="s">
         <v>30</v>
@@ -16595,7 +16595,7 @@
         <v>4</v>
       </c>
       <c r="B322" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C322" t="s">
         <v>29</v>
@@ -16645,7 +16645,7 @@
         <v>4</v>
       </c>
       <c r="B323" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C323" t="s">
         <v>29</v>
@@ -16695,7 +16695,7 @@
         <v>4</v>
       </c>
       <c r="B324" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C324" t="s">
         <v>29</v>
@@ -16745,7 +16745,7 @@
         <v>4</v>
       </c>
       <c r="B325" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C325" t="s">
         <v>29</v>
@@ -16795,7 +16795,7 @@
         <v>4</v>
       </c>
       <c r="B326" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C326" t="s">
         <v>29</v>
@@ -16845,7 +16845,7 @@
         <v>4</v>
       </c>
       <c r="B327" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C327" t="s">
         <v>29</v>
@@ -16895,7 +16895,7 @@
         <v>4</v>
       </c>
       <c r="B328" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C328" t="s">
         <v>29</v>
@@ -16945,7 +16945,7 @@
         <v>4</v>
       </c>
       <c r="B329" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C329" t="s">
         <v>29</v>
@@ -16995,7 +16995,7 @@
         <v>4</v>
       </c>
       <c r="B330" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C330" t="s">
         <v>29</v>
@@ -17045,7 +17045,7 @@
         <v>4</v>
       </c>
       <c r="B331" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C331" t="s">
         <v>29</v>
@@ -17095,7 +17095,7 @@
         <v>4</v>
       </c>
       <c r="B332" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C332" t="s">
         <v>4</v>
@@ -17145,7 +17145,7 @@
         <v>4</v>
       </c>
       <c r="B333" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C333" t="s">
         <v>4</v>
@@ -17195,7 +17195,7 @@
         <v>4</v>
       </c>
       <c r="B334" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C334" t="s">
         <v>4</v>
@@ -17245,7 +17245,7 @@
         <v>4</v>
       </c>
       <c r="B335" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C335" t="s">
         <v>4</v>
@@ -17295,7 +17295,7 @@
         <v>4</v>
       </c>
       <c r="B336" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C336" t="s">
         <v>4</v>
@@ -17345,7 +17345,7 @@
         <v>4</v>
       </c>
       <c r="B337" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C337" t="s">
         <v>4</v>
@@ -17395,7 +17395,7 @@
         <v>4</v>
       </c>
       <c r="B338" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C338" t="s">
         <v>4</v>
@@ -17445,7 +17445,7 @@
         <v>4</v>
       </c>
       <c r="B339" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C339" t="s">
         <v>4</v>
@@ -17495,7 +17495,7 @@
         <v>4</v>
       </c>
       <c r="B340" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C340" t="s">
         <v>4</v>
@@ -17545,7 +17545,7 @@
         <v>4</v>
       </c>
       <c r="B341" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C341" t="s">
         <v>4</v>
@@ -17595,7 +17595,7 @@
         <v>4</v>
       </c>
       <c r="B342" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
@@ -17645,7 +17645,7 @@
         <v>4</v>
       </c>
       <c r="B343" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -17695,7 +17695,7 @@
         <v>4</v>
       </c>
       <c r="B344" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -17745,7 +17745,7 @@
         <v>4</v>
       </c>
       <c r="B345" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -17795,7 +17795,7 @@
         <v>4</v>
       </c>
       <c r="B346" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -17845,7 +17845,7 @@
         <v>4</v>
       </c>
       <c r="B347" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -17895,7 +17895,7 @@
         <v>4</v>
       </c>
       <c r="B348" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -17945,7 +17945,7 @@
         <v>4</v>
       </c>
       <c r="B349" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -17995,7 +17995,7 @@
         <v>4</v>
       </c>
       <c r="B350" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -18045,7 +18045,7 @@
         <v>4</v>
       </c>
       <c r="B351" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -20595,7 +20595,7 @@
         <v>4</v>
       </c>
       <c r="B402" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C402" t="s">
         <v>27</v>
@@ -20645,7 +20645,7 @@
         <v>4</v>
       </c>
       <c r="B403" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C403" t="s">
         <v>27</v>
@@ -20695,7 +20695,7 @@
         <v>4</v>
       </c>
       <c r="B404" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C404" t="s">
         <v>27</v>
@@ -20745,7 +20745,7 @@
         <v>4</v>
       </c>
       <c r="B405" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C405" t="s">
         <v>27</v>
@@ -20795,7 +20795,7 @@
         <v>4</v>
       </c>
       <c r="B406" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C406" t="s">
         <v>27</v>
@@ -20845,7 +20845,7 @@
         <v>4</v>
       </c>
       <c r="B407" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C407" t="s">
         <v>27</v>
@@ -20895,7 +20895,7 @@
         <v>4</v>
       </c>
       <c r="B408" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C408" t="s">
         <v>27</v>
@@ -20945,7 +20945,7 @@
         <v>4</v>
       </c>
       <c r="B409" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C409" t="s">
         <v>27</v>
@@ -20995,7 +20995,7 @@
         <v>4</v>
       </c>
       <c r="B410" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C410" t="s">
         <v>27</v>
@@ -21045,7 +21045,7 @@
         <v>4</v>
       </c>
       <c r="B411" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C411" t="s">
         <v>27</v>
@@ -21095,7 +21095,7 @@
         <v>4</v>
       </c>
       <c r="B412" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C412" t="s">
         <v>30</v>
@@ -21145,7 +21145,7 @@
         <v>4</v>
       </c>
       <c r="B413" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C413" t="s">
         <v>30</v>
@@ -21195,7 +21195,7 @@
         <v>4</v>
       </c>
       <c r="B414" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C414" t="s">
         <v>30</v>
@@ -21245,7 +21245,7 @@
         <v>4</v>
       </c>
       <c r="B415" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C415" t="s">
         <v>30</v>
@@ -21295,7 +21295,7 @@
         <v>4</v>
       </c>
       <c r="B416" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C416" t="s">
         <v>30</v>
@@ -21345,7 +21345,7 @@
         <v>4</v>
       </c>
       <c r="B417" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C417" t="s">
         <v>30</v>
@@ -21395,7 +21395,7 @@
         <v>4</v>
       </c>
       <c r="B418" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C418" t="s">
         <v>30</v>
@@ -21445,7 +21445,7 @@
         <v>4</v>
       </c>
       <c r="B419" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C419" t="s">
         <v>30</v>
@@ -21495,7 +21495,7 @@
         <v>4</v>
       </c>
       <c r="B420" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C420" t="s">
         <v>30</v>
@@ -21545,7 +21545,7 @@
         <v>4</v>
       </c>
       <c r="B421" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C421" t="s">
         <v>30</v>
@@ -21595,7 +21595,7 @@
         <v>4</v>
       </c>
       <c r="B422" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C422" t="s">
         <v>29</v>
@@ -21645,7 +21645,7 @@
         <v>4</v>
       </c>
       <c r="B423" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C423" t="s">
         <v>29</v>
@@ -21695,7 +21695,7 @@
         <v>4</v>
       </c>
       <c r="B424" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C424" t="s">
         <v>29</v>
@@ -21745,7 +21745,7 @@
         <v>4</v>
       </c>
       <c r="B425" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C425" t="s">
         <v>29</v>
@@ -21795,7 +21795,7 @@
         <v>4</v>
       </c>
       <c r="B426" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C426" t="s">
         <v>29</v>
@@ -21845,7 +21845,7 @@
         <v>4</v>
       </c>
       <c r="B427" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C427" t="s">
         <v>29</v>
@@ -21895,7 +21895,7 @@
         <v>4</v>
       </c>
       <c r="B428" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C428" t="s">
         <v>29</v>
@@ -21945,7 +21945,7 @@
         <v>4</v>
       </c>
       <c r="B429" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C429" t="s">
         <v>29</v>
@@ -21995,7 +21995,7 @@
         <v>4</v>
       </c>
       <c r="B430" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C430" t="s">
         <v>29</v>
@@ -22045,7 +22045,7 @@
         <v>4</v>
       </c>
       <c r="B431" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C431" t="s">
         <v>29</v>
@@ -22095,7 +22095,7 @@
         <v>4</v>
       </c>
       <c r="B432" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C432" t="s">
         <v>4</v>
@@ -22145,7 +22145,7 @@
         <v>4</v>
       </c>
       <c r="B433" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C433" t="s">
         <v>4</v>
@@ -22195,7 +22195,7 @@
         <v>4</v>
       </c>
       <c r="B434" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C434" t="s">
         <v>4</v>
@@ -22245,7 +22245,7 @@
         <v>4</v>
       </c>
       <c r="B435" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C435" t="s">
         <v>4</v>
@@ -22295,7 +22295,7 @@
         <v>4</v>
       </c>
       <c r="B436" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C436" t="s">
         <v>4</v>
@@ -22345,7 +22345,7 @@
         <v>4</v>
       </c>
       <c r="B437" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C437" t="s">
         <v>4</v>
@@ -22395,7 +22395,7 @@
         <v>4</v>
       </c>
       <c r="B438" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C438" t="s">
         <v>4</v>
@@ -22445,7 +22445,7 @@
         <v>4</v>
       </c>
       <c r="B439" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C439" t="s">
         <v>4</v>
@@ -22495,7 +22495,7 @@
         <v>4</v>
       </c>
       <c r="B440" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C440" t="s">
         <v>4</v>
@@ -22545,7 +22545,7 @@
         <v>4</v>
       </c>
       <c r="B441" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C441" t="s">
         <v>4</v>
@@ -22595,7 +22595,7 @@
         <v>4</v>
       </c>
       <c r="B442" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C442" t="s">
         <v>28</v>
@@ -22645,7 +22645,7 @@
         <v>4</v>
       </c>
       <c r="B443" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C443" t="s">
         <v>28</v>
@@ -22695,7 +22695,7 @@
         <v>4</v>
       </c>
       <c r="B444" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C444" t="s">
         <v>28</v>
@@ -22745,7 +22745,7 @@
         <v>4</v>
       </c>
       <c r="B445" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C445" t="s">
         <v>28</v>
@@ -22795,7 +22795,7 @@
         <v>4</v>
       </c>
       <c r="B446" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C446" t="s">
         <v>28</v>
@@ -22845,7 +22845,7 @@
         <v>4</v>
       </c>
       <c r="B447" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C447" t="s">
         <v>28</v>
@@ -22895,7 +22895,7 @@
         <v>4</v>
       </c>
       <c r="B448" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C448" t="s">
         <v>28</v>
@@ -22945,7 +22945,7 @@
         <v>4</v>
       </c>
       <c r="B449" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C449" t="s">
         <v>28</v>
@@ -22995,7 +22995,7 @@
         <v>4</v>
       </c>
       <c r="B450" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C450" t="s">
         <v>28</v>
@@ -23045,7 +23045,7 @@
         <v>4</v>
       </c>
       <c r="B451" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C451" t="s">
         <v>28</v>
@@ -23092,10 +23092,10 @@
     </row>
     <row r="452" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B452" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C452" t="s">
         <v>27</v>
@@ -23142,10 +23142,10 @@
     </row>
     <row r="453" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B453" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C453" t="s">
         <v>27</v>
@@ -23192,10 +23192,10 @@
     </row>
     <row r="454" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B454" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C454" t="s">
         <v>27</v>
@@ -23242,10 +23242,10 @@
     </row>
     <row r="455" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B455" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C455" t="s">
         <v>27</v>
@@ -23292,10 +23292,10 @@
     </row>
     <row r="456" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B456" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C456" t="s">
         <v>27</v>
@@ -23342,10 +23342,10 @@
     </row>
     <row r="457" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B457" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C457" t="s">
         <v>27</v>
@@ -23392,10 +23392,10 @@
     </row>
     <row r="458" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B458" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C458" t="s">
         <v>27</v>
@@ -23442,10 +23442,10 @@
     </row>
     <row r="459" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B459" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C459" t="s">
         <v>27</v>
@@ -23492,10 +23492,10 @@
     </row>
     <row r="460" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B460" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C460" t="s">
         <v>27</v>
@@ -23542,10 +23542,10 @@
     </row>
     <row r="461" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B461" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C461" t="s">
         <v>27</v>
@@ -23592,10 +23592,10 @@
     </row>
     <row r="462" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B462" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C462" t="s">
         <v>30</v>
@@ -23642,10 +23642,10 @@
     </row>
     <row r="463" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B463" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C463" t="s">
         <v>30</v>
@@ -23692,10 +23692,10 @@
     </row>
     <row r="464" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B464" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C464" t="s">
         <v>30</v>
@@ -23742,10 +23742,10 @@
     </row>
     <row r="465" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B465" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C465" t="s">
         <v>30</v>
@@ -23792,10 +23792,10 @@
     </row>
     <row r="466" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B466" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C466" t="s">
         <v>30</v>
@@ -23842,10 +23842,10 @@
     </row>
     <row r="467" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B467" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C467" t="s">
         <v>30</v>
@@ -23892,10 +23892,10 @@
     </row>
     <row r="468" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B468" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C468" t="s">
         <v>30</v>
@@ -23942,10 +23942,10 @@
     </row>
     <row r="469" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B469" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C469" t="s">
         <v>30</v>
@@ -23992,10 +23992,10 @@
     </row>
     <row r="470" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B470" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C470" t="s">
         <v>30</v>
@@ -24042,10 +24042,10 @@
     </row>
     <row r="471" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B471" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C471" t="s">
         <v>30</v>
@@ -24092,10 +24092,10 @@
     </row>
     <row r="472" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B472" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C472" t="s">
         <v>29</v>
@@ -24142,10 +24142,10 @@
     </row>
     <row r="473" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B473" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C473" t="s">
         <v>29</v>
@@ -24192,10 +24192,10 @@
     </row>
     <row r="474" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B474" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C474" t="s">
         <v>29</v>
@@ -24242,10 +24242,10 @@
     </row>
     <row r="475" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B475" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C475" t="s">
         <v>29</v>
@@ -24292,10 +24292,10 @@
     </row>
     <row r="476" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B476" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C476" t="s">
         <v>29</v>
@@ -24342,10 +24342,10 @@
     </row>
     <row r="477" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B477" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C477" t="s">
         <v>29</v>
@@ -24392,10 +24392,10 @@
     </row>
     <row r="478" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B478" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C478" t="s">
         <v>29</v>
@@ -24442,10 +24442,10 @@
     </row>
     <row r="479" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B479" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C479" t="s">
         <v>29</v>
@@ -24492,10 +24492,10 @@
     </row>
     <row r="480" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B480" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C480" t="s">
         <v>29</v>
@@ -24542,10 +24542,10 @@
     </row>
     <row r="481" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B481" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C481" t="s">
         <v>29</v>
@@ -24592,10 +24592,10 @@
     </row>
     <row r="482" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B482" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C482" t="s">
         <v>4</v>
@@ -24642,10 +24642,10 @@
     </row>
     <row r="483" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B483" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C483" t="s">
         <v>4</v>
@@ -24692,10 +24692,10 @@
     </row>
     <row r="484" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B484" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C484" t="s">
         <v>4</v>
@@ -24742,10 +24742,10 @@
     </row>
     <row r="485" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B485" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C485" t="s">
         <v>4</v>
@@ -24792,10 +24792,10 @@
     </row>
     <row r="486" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B486" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C486" t="s">
         <v>4</v>
@@ -24842,10 +24842,10 @@
     </row>
     <row r="487" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B487" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C487" t="s">
         <v>4</v>
@@ -24892,10 +24892,10 @@
     </row>
     <row r="488" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B488" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C488" t="s">
         <v>4</v>
@@ -24942,10 +24942,10 @@
     </row>
     <row r="489" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B489" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C489" t="s">
         <v>4</v>
@@ -24992,10 +24992,10 @@
     </row>
     <row r="490" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B490" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C490" t="s">
         <v>4</v>
@@ -25042,10 +25042,10 @@
     </row>
     <row r="491" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B491" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C491" t="s">
         <v>4</v>
@@ -25092,10 +25092,10 @@
     </row>
     <row r="492" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B492" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C492" t="s">
         <v>28</v>
@@ -25142,10 +25142,10 @@
     </row>
     <row r="493" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B493" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C493" t="s">
         <v>28</v>
@@ -25192,10 +25192,10 @@
     </row>
     <row r="494" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B494" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C494" t="s">
         <v>28</v>
@@ -25242,10 +25242,10 @@
     </row>
     <row r="495" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B495" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C495" t="s">
         <v>28</v>
@@ -25292,10 +25292,10 @@
     </row>
     <row r="496" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B496" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C496" t="s">
         <v>28</v>
@@ -25342,10 +25342,10 @@
     </row>
     <row r="497" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B497" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C497" t="s">
         <v>28</v>
@@ -25392,10 +25392,10 @@
     </row>
     <row r="498" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B498" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C498" t="s">
         <v>28</v>
@@ -25442,10 +25442,10 @@
     </row>
     <row r="499" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B499" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C499" t="s">
         <v>28</v>
@@ -25492,10 +25492,10 @@
     </row>
     <row r="500" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B500" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C500" t="s">
         <v>28</v>
@@ -25542,10 +25542,10 @@
     </row>
     <row r="501" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B501" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C501" t="s">
         <v>28</v>
@@ -25592,7 +25592,7 @@
     </row>
     <row r="502" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B502" t="s">
         <v>4</v>
@@ -25642,7 +25642,7 @@
     </row>
     <row r="503" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B503" t="s">
         <v>4</v>
@@ -25692,7 +25692,7 @@
     </row>
     <row r="504" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B504" t="s">
         <v>4</v>
@@ -25742,7 +25742,7 @@
     </row>
     <row r="505" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B505" t="s">
         <v>4</v>
@@ -25792,7 +25792,7 @@
     </row>
     <row r="506" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B506" t="s">
         <v>4</v>
@@ -25842,7 +25842,7 @@
     </row>
     <row r="507" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B507" t="s">
         <v>4</v>
@@ -25892,7 +25892,7 @@
     </row>
     <row r="508" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B508" t="s">
         <v>4</v>
@@ -25942,7 +25942,7 @@
     </row>
     <row r="509" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B509" t="s">
         <v>4</v>
@@ -25992,7 +25992,7 @@
     </row>
     <row r="510" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B510" t="s">
         <v>4</v>
@@ -26042,7 +26042,7 @@
     </row>
     <row r="511" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B511" t="s">
         <v>4</v>
@@ -26092,7 +26092,7 @@
     </row>
     <row r="512" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B512" t="s">
         <v>4</v>
@@ -26142,7 +26142,7 @@
     </row>
     <row r="513" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B513" t="s">
         <v>4</v>
@@ -26192,7 +26192,7 @@
     </row>
     <row r="514" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B514" t="s">
         <v>4</v>
@@ -26242,7 +26242,7 @@
     </row>
     <row r="515" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B515" t="s">
         <v>4</v>
@@ -26292,7 +26292,7 @@
     </row>
     <row r="516" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B516" t="s">
         <v>4</v>
@@ -26342,7 +26342,7 @@
     </row>
     <row r="517" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B517" t="s">
         <v>4</v>
@@ -26392,7 +26392,7 @@
     </row>
     <row r="518" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B518" t="s">
         <v>4</v>
@@ -26442,7 +26442,7 @@
     </row>
     <row r="519" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B519" t="s">
         <v>4</v>
@@ -26492,7 +26492,7 @@
     </row>
     <row r="520" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B520" t="s">
         <v>4</v>
@@ -26542,7 +26542,7 @@
     </row>
     <row r="521" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B521" t="s">
         <v>4</v>
@@ -26592,7 +26592,7 @@
     </row>
     <row r="522" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B522" t="s">
         <v>4</v>
@@ -26642,7 +26642,7 @@
     </row>
     <row r="523" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B523" t="s">
         <v>4</v>
@@ -26692,7 +26692,7 @@
     </row>
     <row r="524" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B524" t="s">
         <v>4</v>
@@ -26742,7 +26742,7 @@
     </row>
     <row r="525" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B525" t="s">
         <v>4</v>
@@ -26792,7 +26792,7 @@
     </row>
     <row r="526" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B526" t="s">
         <v>4</v>
@@ -26842,7 +26842,7 @@
     </row>
     <row r="527" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B527" t="s">
         <v>4</v>
@@ -26892,7 +26892,7 @@
     </row>
     <row r="528" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B528" t="s">
         <v>4</v>
@@ -26942,7 +26942,7 @@
     </row>
     <row r="529" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B529" t="s">
         <v>4</v>
@@ -26992,7 +26992,7 @@
     </row>
     <row r="530" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B530" t="s">
         <v>4</v>
@@ -27042,7 +27042,7 @@
     </row>
     <row r="531" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B531" t="s">
         <v>4</v>
@@ -27092,7 +27092,7 @@
     </row>
     <row r="532" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B532" t="s">
         <v>4</v>
@@ -27142,7 +27142,7 @@
     </row>
     <row r="533" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B533" t="s">
         <v>4</v>
@@ -27192,7 +27192,7 @@
     </row>
     <row r="534" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B534" t="s">
         <v>4</v>
@@ -27242,7 +27242,7 @@
     </row>
     <row r="535" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B535" t="s">
         <v>4</v>
@@ -27292,7 +27292,7 @@
     </row>
     <row r="536" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B536" t="s">
         <v>4</v>
@@ -27342,7 +27342,7 @@
     </row>
     <row r="537" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B537" t="s">
         <v>4</v>
@@ -27392,7 +27392,7 @@
     </row>
     <row r="538" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B538" t="s">
         <v>4</v>
@@ -27442,7 +27442,7 @@
     </row>
     <row r="539" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B539" t="s">
         <v>4</v>
@@ -27492,7 +27492,7 @@
     </row>
     <row r="540" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B540" t="s">
         <v>4</v>
@@ -27542,7 +27542,7 @@
     </row>
     <row r="541" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B541" t="s">
         <v>4</v>
@@ -27592,7 +27592,7 @@
     </row>
     <row r="542" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B542" t="s">
         <v>4</v>
@@ -27642,7 +27642,7 @@
     </row>
     <row r="543" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B543" t="s">
         <v>4</v>
@@ -27692,7 +27692,7 @@
     </row>
     <row r="544" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B544" t="s">
         <v>4</v>
@@ -27742,7 +27742,7 @@
     </row>
     <row r="545" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B545" t="s">
         <v>4</v>
@@ -27792,7 +27792,7 @@
     </row>
     <row r="546" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B546" t="s">
         <v>4</v>
@@ -27842,7 +27842,7 @@
     </row>
     <row r="547" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B547" t="s">
         <v>4</v>
@@ -27892,7 +27892,7 @@
     </row>
     <row r="548" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B548" t="s">
         <v>4</v>
@@ -27942,7 +27942,7 @@
     </row>
     <row r="549" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B549" t="s">
         <v>4</v>
@@ -27992,7 +27992,7 @@
     </row>
     <row r="550" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B550" t="s">
         <v>4</v>
@@ -28042,7 +28042,7 @@
     </row>
     <row r="551" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B551" t="s">
         <v>4</v>
@@ -28092,10 +28092,10 @@
     </row>
     <row r="552" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B552" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C552" t="s">
         <v>27</v>
@@ -28142,10 +28142,10 @@
     </row>
     <row r="553" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B553" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C553" t="s">
         <v>27</v>
@@ -28192,10 +28192,10 @@
     </row>
     <row r="554" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B554" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C554" t="s">
         <v>27</v>
@@ -28242,10 +28242,10 @@
     </row>
     <row r="555" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B555" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C555" t="s">
         <v>27</v>
@@ -28292,10 +28292,10 @@
     </row>
     <row r="556" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B556" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C556" t="s">
         <v>27</v>
@@ -28342,10 +28342,10 @@
     </row>
     <row r="557" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B557" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C557" t="s">
         <v>27</v>
@@ -28392,10 +28392,10 @@
     </row>
     <row r="558" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B558" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C558" t="s">
         <v>27</v>
@@ -28442,10 +28442,10 @@
     </row>
     <row r="559" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B559" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C559" t="s">
         <v>27</v>
@@ -28492,10 +28492,10 @@
     </row>
     <row r="560" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B560" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C560" t="s">
         <v>27</v>
@@ -28542,10 +28542,10 @@
     </row>
     <row r="561" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B561" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C561" t="s">
         <v>27</v>
@@ -28592,10 +28592,10 @@
     </row>
     <row r="562" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B562" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C562" t="s">
         <v>30</v>
@@ -28642,10 +28642,10 @@
     </row>
     <row r="563" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B563" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C563" t="s">
         <v>30</v>
@@ -28692,10 +28692,10 @@
     </row>
     <row r="564" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B564" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C564" t="s">
         <v>30</v>
@@ -28742,10 +28742,10 @@
     </row>
     <row r="565" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B565" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C565" t="s">
         <v>30</v>
@@ -28792,10 +28792,10 @@
     </row>
     <row r="566" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B566" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C566" t="s">
         <v>30</v>
@@ -28842,10 +28842,10 @@
     </row>
     <row r="567" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B567" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C567" t="s">
         <v>30</v>
@@ -28892,10 +28892,10 @@
     </row>
     <row r="568" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B568" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C568" t="s">
         <v>30</v>
@@ -28942,10 +28942,10 @@
     </row>
     <row r="569" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B569" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C569" t="s">
         <v>30</v>
@@ -28992,10 +28992,10 @@
     </row>
     <row r="570" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B570" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C570" t="s">
         <v>30</v>
@@ -29042,10 +29042,10 @@
     </row>
     <row r="571" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B571" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C571" t="s">
         <v>30</v>
@@ -29092,10 +29092,10 @@
     </row>
     <row r="572" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B572" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C572" t="s">
         <v>29</v>
@@ -29142,10 +29142,10 @@
     </row>
     <row r="573" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B573" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C573" t="s">
         <v>29</v>
@@ -29192,10 +29192,10 @@
     </row>
     <row r="574" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B574" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C574" t="s">
         <v>29</v>
@@ -29242,10 +29242,10 @@
     </row>
     <row r="575" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B575" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C575" t="s">
         <v>29</v>
@@ -29292,10 +29292,10 @@
     </row>
     <row r="576" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B576" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C576" t="s">
         <v>29</v>
@@ -29342,10 +29342,10 @@
     </row>
     <row r="577" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B577" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C577" t="s">
         <v>29</v>
@@ -29392,10 +29392,10 @@
     </row>
     <row r="578" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B578" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C578" t="s">
         <v>29</v>
@@ -29442,10 +29442,10 @@
     </row>
     <row r="579" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B579" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C579" t="s">
         <v>29</v>
@@ -29492,10 +29492,10 @@
     </row>
     <row r="580" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B580" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C580" t="s">
         <v>29</v>
@@ -29542,10 +29542,10 @@
     </row>
     <row r="581" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B581" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C581" t="s">
         <v>29</v>
@@ -29592,10 +29592,10 @@
     </row>
     <row r="582" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B582" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C582" t="s">
         <v>4</v>
@@ -29642,10 +29642,10 @@
     </row>
     <row r="583" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B583" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C583" t="s">
         <v>4</v>
@@ -29692,10 +29692,10 @@
     </row>
     <row r="584" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B584" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C584" t="s">
         <v>4</v>
@@ -29742,10 +29742,10 @@
     </row>
     <row r="585" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B585" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C585" t="s">
         <v>4</v>
@@ -29792,10 +29792,10 @@
     </row>
     <row r="586" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B586" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C586" t="s">
         <v>4</v>
@@ -29842,10 +29842,10 @@
     </row>
     <row r="587" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B587" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C587" t="s">
         <v>4</v>
@@ -29892,10 +29892,10 @@
     </row>
     <row r="588" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B588" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C588" t="s">
         <v>4</v>
@@ -29942,10 +29942,10 @@
     </row>
     <row r="589" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B589" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C589" t="s">
         <v>4</v>
@@ -29992,10 +29992,10 @@
     </row>
     <row r="590" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B590" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C590" t="s">
         <v>4</v>
@@ -30042,10 +30042,10 @@
     </row>
     <row r="591" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B591" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C591" t="s">
         <v>4</v>
@@ -30092,10 +30092,10 @@
     </row>
     <row r="592" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B592" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C592" t="s">
         <v>28</v>
@@ -30142,10 +30142,10 @@
     </row>
     <row r="593" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B593" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C593" t="s">
         <v>28</v>
@@ -30192,10 +30192,10 @@
     </row>
     <row r="594" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B594" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C594" t="s">
         <v>28</v>
@@ -30242,10 +30242,10 @@
     </row>
     <row r="595" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B595" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C595" t="s">
         <v>28</v>
@@ -30292,10 +30292,10 @@
     </row>
     <row r="596" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B596" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C596" t="s">
         <v>28</v>
@@ -30342,10 +30342,10 @@
     </row>
     <row r="597" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B597" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C597" t="s">
         <v>28</v>
@@ -30392,10 +30392,10 @@
     </row>
     <row r="598" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B598" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C598" t="s">
         <v>28</v>
@@ -30442,10 +30442,10 @@
     </row>
     <row r="599" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B599" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C599" t="s">
         <v>28</v>
@@ -30492,10 +30492,10 @@
     </row>
     <row r="600" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B600" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C600" t="s">
         <v>28</v>
@@ -30542,10 +30542,10 @@
     </row>
     <row r="601" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B601" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C601" t="s">
         <v>28</v>
@@ -30592,10 +30592,10 @@
     </row>
     <row r="602" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B602" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C602" t="s">
         <v>27</v>
@@ -30642,10 +30642,10 @@
     </row>
     <row r="603" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B603" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C603" t="s">
         <v>27</v>
@@ -30692,10 +30692,10 @@
     </row>
     <row r="604" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B604" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C604" t="s">
         <v>27</v>
@@ -30742,10 +30742,10 @@
     </row>
     <row r="605" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B605" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C605" t="s">
         <v>27</v>
@@ -30792,10 +30792,10 @@
     </row>
     <row r="606" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B606" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C606" t="s">
         <v>27</v>
@@ -30842,10 +30842,10 @@
     </row>
     <row r="607" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B607" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C607" t="s">
         <v>27</v>
@@ -30892,10 +30892,10 @@
     </row>
     <row r="608" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B608" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C608" t="s">
         <v>27</v>
@@ -30942,10 +30942,10 @@
     </row>
     <row r="609" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B609" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C609" t="s">
         <v>27</v>
@@ -30992,10 +30992,10 @@
     </row>
     <row r="610" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B610" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C610" t="s">
         <v>27</v>
@@ -31042,10 +31042,10 @@
     </row>
     <row r="611" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B611" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C611" t="s">
         <v>27</v>
@@ -31092,10 +31092,10 @@
     </row>
     <row r="612" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B612" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C612" t="s">
         <v>30</v>
@@ -31142,10 +31142,10 @@
     </row>
     <row r="613" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B613" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C613" t="s">
         <v>30</v>
@@ -31192,10 +31192,10 @@
     </row>
     <row r="614" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B614" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C614" t="s">
         <v>30</v>
@@ -31242,10 +31242,10 @@
     </row>
     <row r="615" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B615" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C615" t="s">
         <v>30</v>
@@ -31292,10 +31292,10 @@
     </row>
     <row r="616" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B616" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C616" t="s">
         <v>30</v>
@@ -31342,10 +31342,10 @@
     </row>
     <row r="617" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B617" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C617" t="s">
         <v>30</v>
@@ -31392,10 +31392,10 @@
     </row>
     <row r="618" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B618" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C618" t="s">
         <v>30</v>
@@ -31442,10 +31442,10 @@
     </row>
     <row r="619" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B619" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C619" t="s">
         <v>30</v>
@@ -31492,10 +31492,10 @@
     </row>
     <row r="620" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B620" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C620" t="s">
         <v>30</v>
@@ -31542,10 +31542,10 @@
     </row>
     <row r="621" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B621" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C621" t="s">
         <v>30</v>
@@ -31592,10 +31592,10 @@
     </row>
     <row r="622" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B622" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C622" t="s">
         <v>29</v>
@@ -31642,10 +31642,10 @@
     </row>
     <row r="623" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B623" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C623" t="s">
         <v>29</v>
@@ -31692,10 +31692,10 @@
     </row>
     <row r="624" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B624" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C624" t="s">
         <v>29</v>
@@ -31742,10 +31742,10 @@
     </row>
     <row r="625" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B625" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C625" t="s">
         <v>29</v>
@@ -31792,10 +31792,10 @@
     </row>
     <row r="626" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B626" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C626" t="s">
         <v>29</v>
@@ -31842,10 +31842,10 @@
     </row>
     <row r="627" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B627" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C627" t="s">
         <v>29</v>
@@ -31892,10 +31892,10 @@
     </row>
     <row r="628" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B628" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C628" t="s">
         <v>29</v>
@@ -31942,10 +31942,10 @@
     </row>
     <row r="629" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B629" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C629" t="s">
         <v>29</v>
@@ -31992,10 +31992,10 @@
     </row>
     <row r="630" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B630" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C630" t="s">
         <v>29</v>
@@ -32042,10 +32042,10 @@
     </row>
     <row r="631" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B631" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C631" t="s">
         <v>29</v>
@@ -32092,10 +32092,10 @@
     </row>
     <row r="632" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B632" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C632" t="s">
         <v>4</v>
@@ -32142,10 +32142,10 @@
     </row>
     <row r="633" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B633" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C633" t="s">
         <v>4</v>
@@ -32192,10 +32192,10 @@
     </row>
     <row r="634" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B634" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C634" t="s">
         <v>4</v>
@@ -32242,10 +32242,10 @@
     </row>
     <row r="635" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B635" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C635" t="s">
         <v>4</v>
@@ -32292,10 +32292,10 @@
     </row>
     <row r="636" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B636" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C636" t="s">
         <v>4</v>
@@ -32342,10 +32342,10 @@
     </row>
     <row r="637" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B637" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C637" t="s">
         <v>4</v>
@@ -32392,10 +32392,10 @@
     </row>
     <row r="638" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B638" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C638" t="s">
         <v>4</v>
@@ -32442,10 +32442,10 @@
     </row>
     <row r="639" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B639" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C639" t="s">
         <v>4</v>
@@ -32492,10 +32492,10 @@
     </row>
     <row r="640" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B640" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C640" t="s">
         <v>4</v>
@@ -32542,10 +32542,10 @@
     </row>
     <row r="641" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B641" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C641" t="s">
         <v>4</v>
@@ -32592,10 +32592,10 @@
     </row>
     <row r="642" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B642" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C642" t="s">
         <v>28</v>
@@ -32642,10 +32642,10 @@
     </row>
     <row r="643" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B643" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C643" t="s">
         <v>28</v>
@@ -32692,10 +32692,10 @@
     </row>
     <row r="644" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B644" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C644" t="s">
         <v>28</v>
@@ -32742,10 +32742,10 @@
     </row>
     <row r="645" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B645" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C645" t="s">
         <v>28</v>
@@ -32792,10 +32792,10 @@
     </row>
     <row r="646" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B646" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C646" t="s">
         <v>28</v>
@@ -32842,10 +32842,10 @@
     </row>
     <row r="647" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B647" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C647" t="s">
         <v>28</v>
@@ -32892,10 +32892,10 @@
     </row>
     <row r="648" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B648" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C648" t="s">
         <v>28</v>
@@ -32942,10 +32942,10 @@
     </row>
     <row r="649" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B649" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C649" t="s">
         <v>28</v>
@@ -32992,10 +32992,10 @@
     </row>
     <row r="650" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B650" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C650" t="s">
         <v>28</v>
@@ -33042,10 +33042,10 @@
     </row>
     <row r="651" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B651" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C651" t="s">
         <v>28</v>
@@ -33092,7 +33092,7 @@
     </row>
     <row r="652" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B652" t="s">
         <v>4</v>
@@ -33142,7 +33142,7 @@
     </row>
     <row r="653" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B653" t="s">
         <v>4</v>
@@ -33192,7 +33192,7 @@
     </row>
     <row r="654" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B654" t="s">
         <v>4</v>
@@ -33242,7 +33242,7 @@
     </row>
     <row r="655" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B655" t="s">
         <v>4</v>
@@ -33292,7 +33292,7 @@
     </row>
     <row r="656" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B656" t="s">
         <v>4</v>
@@ -33342,7 +33342,7 @@
     </row>
     <row r="657" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B657" t="s">
         <v>4</v>
@@ -33392,7 +33392,7 @@
     </row>
     <row r="658" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A658" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B658" t="s">
         <v>4</v>
@@ -33442,7 +33442,7 @@
     </row>
     <row r="659" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B659" t="s">
         <v>4</v>
@@ -33492,7 +33492,7 @@
     </row>
     <row r="660" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B660" t="s">
         <v>4</v>
@@ -33542,7 +33542,7 @@
     </row>
     <row r="661" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B661" t="s">
         <v>4</v>
@@ -33592,7 +33592,7 @@
     </row>
     <row r="662" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B662" t="s">
         <v>4</v>
@@ -33642,7 +33642,7 @@
     </row>
     <row r="663" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B663" t="s">
         <v>4</v>
@@ -33692,7 +33692,7 @@
     </row>
     <row r="664" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B664" t="s">
         <v>4</v>
@@ -33742,7 +33742,7 @@
     </row>
     <row r="665" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B665" t="s">
         <v>4</v>
@@ -33792,7 +33792,7 @@
     </row>
     <row r="666" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B666" t="s">
         <v>4</v>
@@ -33842,7 +33842,7 @@
     </row>
     <row r="667" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B667" t="s">
         <v>4</v>
@@ -33892,7 +33892,7 @@
     </row>
     <row r="668" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B668" t="s">
         <v>4</v>
@@ -33942,7 +33942,7 @@
     </row>
     <row r="669" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B669" t="s">
         <v>4</v>
@@ -33992,7 +33992,7 @@
     </row>
     <row r="670" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B670" t="s">
         <v>4</v>
@@ -34042,7 +34042,7 @@
     </row>
     <row r="671" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B671" t="s">
         <v>4</v>
@@ -34092,7 +34092,7 @@
     </row>
     <row r="672" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B672" t="s">
         <v>4</v>
@@ -34142,7 +34142,7 @@
     </row>
     <row r="673" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B673" t="s">
         <v>4</v>
@@ -34192,7 +34192,7 @@
     </row>
     <row r="674" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B674" t="s">
         <v>4</v>
@@ -34242,7 +34242,7 @@
     </row>
     <row r="675" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B675" t="s">
         <v>4</v>
@@ -34292,7 +34292,7 @@
     </row>
     <row r="676" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B676" t="s">
         <v>4</v>
@@ -34342,7 +34342,7 @@
     </row>
     <row r="677" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B677" t="s">
         <v>4</v>
@@ -34392,7 +34392,7 @@
     </row>
     <row r="678" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B678" t="s">
         <v>4</v>
@@ -34442,7 +34442,7 @@
     </row>
     <row r="679" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B679" t="s">
         <v>4</v>
@@ -34492,7 +34492,7 @@
     </row>
     <row r="680" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B680" t="s">
         <v>4</v>
@@ -34542,7 +34542,7 @@
     </row>
     <row r="681" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B681" t="s">
         <v>4</v>
@@ -34592,7 +34592,7 @@
     </row>
     <row r="682" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B682" t="s">
         <v>4</v>
@@ -34642,7 +34642,7 @@
     </row>
     <row r="683" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B683" t="s">
         <v>4</v>
@@ -34692,7 +34692,7 @@
     </row>
     <row r="684" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B684" t="s">
         <v>4</v>
@@ -34742,7 +34742,7 @@
     </row>
     <row r="685" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A685" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B685" t="s">
         <v>4</v>
@@ -34792,7 +34792,7 @@
     </row>
     <row r="686" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A686" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B686" t="s">
         <v>4</v>
@@ -34842,7 +34842,7 @@
     </row>
     <row r="687" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A687" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B687" t="s">
         <v>4</v>
@@ -34892,7 +34892,7 @@
     </row>
     <row r="688" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A688" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B688" t="s">
         <v>4</v>
@@ -34942,7 +34942,7 @@
     </row>
     <row r="689" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A689" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B689" t="s">
         <v>4</v>
@@ -34992,7 +34992,7 @@
     </row>
     <row r="690" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A690" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B690" t="s">
         <v>4</v>
@@ -35042,7 +35042,7 @@
     </row>
     <row r="691" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A691" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B691" t="s">
         <v>4</v>
@@ -35092,7 +35092,7 @@
     </row>
     <row r="692" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A692" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B692" t="s">
         <v>4</v>
@@ -35142,7 +35142,7 @@
     </row>
     <row r="693" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A693" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B693" t="s">
         <v>4</v>
@@ -35192,7 +35192,7 @@
     </row>
     <row r="694" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A694" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B694" t="s">
         <v>4</v>
@@ -35242,7 +35242,7 @@
     </row>
     <row r="695" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A695" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B695" t="s">
         <v>4</v>
@@ -35292,7 +35292,7 @@
     </row>
     <row r="696" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A696" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B696" t="s">
         <v>4</v>
@@ -35342,7 +35342,7 @@
     </row>
     <row r="697" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A697" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B697" t="s">
         <v>4</v>
@@ -35392,7 +35392,7 @@
     </row>
     <row r="698" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A698" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B698" t="s">
         <v>4</v>
@@ -35442,7 +35442,7 @@
     </row>
     <row r="699" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A699" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B699" t="s">
         <v>4</v>
@@ -35492,7 +35492,7 @@
     </row>
     <row r="700" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A700" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B700" t="s">
         <v>4</v>
@@ -35542,7 +35542,7 @@
     </row>
     <row r="701" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A701" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B701" t="s">
         <v>4</v>
@@ -35592,10 +35592,10 @@
     </row>
     <row r="702" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A702" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B702" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C702" t="s">
         <v>27</v>
@@ -35642,10 +35642,10 @@
     </row>
     <row r="703" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A703" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B703" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C703" t="s">
         <v>27</v>
@@ -35692,10 +35692,10 @@
     </row>
     <row r="704" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A704" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B704" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C704" t="s">
         <v>27</v>
@@ -35742,10 +35742,10 @@
     </row>
     <row r="705" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A705" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B705" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C705" t="s">
         <v>27</v>
@@ -35792,10 +35792,10 @@
     </row>
     <row r="706" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A706" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B706" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C706" t="s">
         <v>27</v>
@@ -35842,10 +35842,10 @@
     </row>
     <row r="707" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A707" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B707" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C707" t="s">
         <v>27</v>
@@ -35892,10 +35892,10 @@
     </row>
     <row r="708" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A708" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B708" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C708" t="s">
         <v>27</v>
@@ -35942,10 +35942,10 @@
     </row>
     <row r="709" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A709" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B709" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C709" t="s">
         <v>27</v>
@@ -35992,10 +35992,10 @@
     </row>
     <row r="710" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A710" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B710" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C710" t="s">
         <v>27</v>
@@ -36042,10 +36042,10 @@
     </row>
     <row r="711" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A711" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B711" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C711" t="s">
         <v>27</v>
@@ -36092,10 +36092,10 @@
     </row>
     <row r="712" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A712" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B712" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C712" t="s">
         <v>30</v>
@@ -36142,10 +36142,10 @@
     </row>
     <row r="713" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A713" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B713" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C713" t="s">
         <v>30</v>
@@ -36192,10 +36192,10 @@
     </row>
     <row r="714" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A714" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B714" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C714" t="s">
         <v>30</v>
@@ -36242,10 +36242,10 @@
     </row>
     <row r="715" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A715" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B715" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C715" t="s">
         <v>30</v>
@@ -36292,10 +36292,10 @@
     </row>
     <row r="716" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A716" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B716" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C716" t="s">
         <v>30</v>
@@ -36342,10 +36342,10 @@
     </row>
     <row r="717" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A717" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B717" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C717" t="s">
         <v>30</v>
@@ -36392,10 +36392,10 @@
     </row>
     <row r="718" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A718" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B718" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C718" t="s">
         <v>30</v>
@@ -36442,10 +36442,10 @@
     </row>
     <row r="719" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A719" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B719" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C719" t="s">
         <v>30</v>
@@ -36492,10 +36492,10 @@
     </row>
     <row r="720" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A720" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B720" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C720" t="s">
         <v>30</v>
@@ -36542,10 +36542,10 @@
     </row>
     <row r="721" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A721" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B721" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C721" t="s">
         <v>30</v>
@@ -36592,10 +36592,10 @@
     </row>
     <row r="722" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A722" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B722" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C722" t="s">
         <v>29</v>
@@ -36642,10 +36642,10 @@
     </row>
     <row r="723" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A723" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B723" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C723" t="s">
         <v>29</v>
@@ -36692,10 +36692,10 @@
     </row>
     <row r="724" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A724" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B724" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C724" t="s">
         <v>29</v>
@@ -36742,10 +36742,10 @@
     </row>
     <row r="725" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A725" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B725" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C725" t="s">
         <v>29</v>
@@ -36792,10 +36792,10 @@
     </row>
     <row r="726" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A726" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B726" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C726" t="s">
         <v>29</v>
@@ -36842,10 +36842,10 @@
     </row>
     <row r="727" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A727" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B727" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C727" t="s">
         <v>29</v>
@@ -36892,10 +36892,10 @@
     </row>
     <row r="728" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A728" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B728" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C728" t="s">
         <v>29</v>
@@ -36942,10 +36942,10 @@
     </row>
     <row r="729" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A729" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B729" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C729" t="s">
         <v>29</v>
@@ -36992,10 +36992,10 @@
     </row>
     <row r="730" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A730" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B730" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C730" t="s">
         <v>29</v>
@@ -37042,10 +37042,10 @@
     </row>
     <row r="731" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A731" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B731" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C731" t="s">
         <v>29</v>
@@ -37092,10 +37092,10 @@
     </row>
     <row r="732" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A732" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B732" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C732" t="s">
         <v>4</v>
@@ -37142,10 +37142,10 @@
     </row>
     <row r="733" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A733" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B733" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C733" t="s">
         <v>4</v>
@@ -37192,10 +37192,10 @@
     </row>
     <row r="734" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A734" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B734" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C734" t="s">
         <v>4</v>
@@ -37242,10 +37242,10 @@
     </row>
     <row r="735" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A735" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B735" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C735" t="s">
         <v>4</v>
@@ -37292,10 +37292,10 @@
     </row>
     <row r="736" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A736" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B736" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C736" t="s">
         <v>4</v>
@@ -37342,10 +37342,10 @@
     </row>
     <row r="737" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A737" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B737" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C737" t="s">
         <v>4</v>
@@ -37392,10 +37392,10 @@
     </row>
     <row r="738" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A738" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B738" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C738" t="s">
         <v>4</v>
@@ -37442,10 +37442,10 @@
     </row>
     <row r="739" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A739" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B739" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C739" t="s">
         <v>4</v>
@@ -37492,10 +37492,10 @@
     </row>
     <row r="740" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A740" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B740" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C740" t="s">
         <v>4</v>
@@ -37542,10 +37542,10 @@
     </row>
     <row r="741" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A741" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B741" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C741" t="s">
         <v>4</v>
@@ -37592,10 +37592,10 @@
     </row>
     <row r="742" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A742" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B742" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C742" t="s">
         <v>28</v>
@@ -37642,10 +37642,10 @@
     </row>
     <row r="743" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A743" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B743" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C743" t="s">
         <v>28</v>
@@ -37692,10 +37692,10 @@
     </row>
     <row r="744" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A744" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B744" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C744" t="s">
         <v>28</v>
@@ -37742,10 +37742,10 @@
     </row>
     <row r="745" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A745" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B745" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C745" t="s">
         <v>28</v>
@@ -37792,10 +37792,10 @@
     </row>
     <row r="746" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A746" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B746" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C746" t="s">
         <v>28</v>
@@ -37842,10 +37842,10 @@
     </row>
     <row r="747" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A747" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B747" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C747" t="s">
         <v>28</v>
@@ -37892,10 +37892,10 @@
     </row>
     <row r="748" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A748" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B748" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C748" t="s">
         <v>28</v>
@@ -37942,10 +37942,10 @@
     </row>
     <row r="749" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A749" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B749" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C749" t="s">
         <v>28</v>
@@ -37992,10 +37992,10 @@
     </row>
     <row r="750" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A750" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B750" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C750" t="s">
         <v>28</v>
@@ -38042,10 +38042,10 @@
     </row>
     <row r="751" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A751" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B751" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C751" t="s">
         <v>28</v>
@@ -38092,10 +38092,10 @@
     </row>
     <row r="752" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A752" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B752" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C752" t="s">
         <v>27</v>
@@ -38142,10 +38142,10 @@
     </row>
     <row r="753" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A753" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B753" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C753" t="s">
         <v>27</v>
@@ -38192,10 +38192,10 @@
     </row>
     <row r="754" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A754" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B754" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C754" t="s">
         <v>27</v>
@@ -38242,10 +38242,10 @@
     </row>
     <row r="755" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A755" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B755" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C755" t="s">
         <v>27</v>
@@ -38292,10 +38292,10 @@
     </row>
     <row r="756" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A756" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B756" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C756" t="s">
         <v>27</v>
@@ -38342,10 +38342,10 @@
     </row>
     <row r="757" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A757" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B757" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C757" t="s">
         <v>27</v>
@@ -38392,10 +38392,10 @@
     </row>
     <row r="758" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A758" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B758" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C758" t="s">
         <v>27</v>
@@ -38442,10 +38442,10 @@
     </row>
     <row r="759" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A759" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B759" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C759" t="s">
         <v>27</v>
@@ -38492,10 +38492,10 @@
     </row>
     <row r="760" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A760" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B760" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C760" t="s">
         <v>27</v>
@@ -38542,10 +38542,10 @@
     </row>
     <row r="761" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A761" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B761" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C761" t="s">
         <v>27</v>
@@ -38592,10 +38592,10 @@
     </row>
     <row r="762" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A762" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B762" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C762" t="s">
         <v>30</v>
@@ -38642,10 +38642,10 @@
     </row>
     <row r="763" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A763" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B763" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C763" t="s">
         <v>30</v>
@@ -38692,10 +38692,10 @@
     </row>
     <row r="764" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A764" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B764" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C764" t="s">
         <v>30</v>
@@ -38742,10 +38742,10 @@
     </row>
     <row r="765" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A765" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B765" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C765" t="s">
         <v>30</v>
@@ -38792,10 +38792,10 @@
     </row>
     <row r="766" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A766" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B766" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C766" t="s">
         <v>30</v>
@@ -38842,10 +38842,10 @@
     </row>
     <row r="767" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A767" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B767" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C767" t="s">
         <v>30</v>
@@ -38892,10 +38892,10 @@
     </row>
     <row r="768" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A768" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B768" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C768" t="s">
         <v>30</v>
@@ -38942,10 +38942,10 @@
     </row>
     <row r="769" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A769" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B769" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C769" t="s">
         <v>30</v>
@@ -38992,10 +38992,10 @@
     </row>
     <row r="770" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A770" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B770" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C770" t="s">
         <v>30</v>
@@ -39042,10 +39042,10 @@
     </row>
     <row r="771" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A771" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B771" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C771" t="s">
         <v>30</v>
@@ -39092,10 +39092,10 @@
     </row>
     <row r="772" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A772" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B772" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C772" t="s">
         <v>29</v>
@@ -39142,10 +39142,10 @@
     </row>
     <row r="773" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A773" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B773" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C773" t="s">
         <v>29</v>
@@ -39192,10 +39192,10 @@
     </row>
     <row r="774" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A774" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B774" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C774" t="s">
         <v>29</v>
@@ -39242,10 +39242,10 @@
     </row>
     <row r="775" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A775" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B775" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C775" t="s">
         <v>29</v>
@@ -39292,10 +39292,10 @@
     </row>
     <row r="776" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A776" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B776" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C776" t="s">
         <v>29</v>
@@ -39342,10 +39342,10 @@
     </row>
     <row r="777" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A777" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B777" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C777" t="s">
         <v>29</v>
@@ -39392,10 +39392,10 @@
     </row>
     <row r="778" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A778" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B778" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C778" t="s">
         <v>29</v>
@@ -39442,10 +39442,10 @@
     </row>
     <row r="779" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A779" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B779" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C779" t="s">
         <v>29</v>
@@ -39492,10 +39492,10 @@
     </row>
     <row r="780" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A780" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B780" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C780" t="s">
         <v>29</v>
@@ -39542,10 +39542,10 @@
     </row>
     <row r="781" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A781" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B781" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C781" t="s">
         <v>29</v>
@@ -39592,10 +39592,10 @@
     </row>
     <row r="782" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A782" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B782" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C782" t="s">
         <v>4</v>
@@ -39642,10 +39642,10 @@
     </row>
     <row r="783" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A783" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B783" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C783" t="s">
         <v>4</v>
@@ -39692,10 +39692,10 @@
     </row>
     <row r="784" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A784" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B784" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C784" t="s">
         <v>4</v>
@@ -39742,10 +39742,10 @@
     </row>
     <row r="785" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A785" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B785" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C785" t="s">
         <v>4</v>
@@ -39792,10 +39792,10 @@
     </row>
     <row r="786" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A786" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B786" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C786" t="s">
         <v>4</v>
@@ -39842,10 +39842,10 @@
     </row>
     <row r="787" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A787" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B787" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C787" t="s">
         <v>4</v>
@@ -39892,10 +39892,10 @@
     </row>
     <row r="788" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A788" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B788" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C788" t="s">
         <v>4</v>
@@ -39942,10 +39942,10 @@
     </row>
     <row r="789" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A789" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B789" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C789" t="s">
         <v>4</v>
@@ -39992,10 +39992,10 @@
     </row>
     <row r="790" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A790" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B790" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C790" t="s">
         <v>4</v>
@@ -40042,10 +40042,10 @@
     </row>
     <row r="791" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A791" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B791" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C791" t="s">
         <v>4</v>
@@ -40092,10 +40092,10 @@
     </row>
     <row r="792" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A792" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B792" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C792" t="s">
         <v>28</v>
@@ -40142,10 +40142,10 @@
     </row>
     <row r="793" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A793" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B793" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C793" t="s">
         <v>28</v>
@@ -40192,10 +40192,10 @@
     </row>
     <row r="794" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A794" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B794" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C794" t="s">
         <v>28</v>
@@ -40242,10 +40242,10 @@
     </row>
     <row r="795" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A795" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B795" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C795" t="s">
         <v>28</v>
@@ -40292,10 +40292,10 @@
     </row>
     <row r="796" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A796" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B796" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C796" t="s">
         <v>28</v>
@@ -40342,10 +40342,10 @@
     </row>
     <row r="797" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A797" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B797" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C797" t="s">
         <v>28</v>
@@ -40392,10 +40392,10 @@
     </row>
     <row r="798" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A798" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B798" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C798" t="s">
         <v>28</v>
@@ -40442,10 +40442,10 @@
     </row>
     <row r="799" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A799" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B799" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C799" t="s">
         <v>28</v>
@@ -40492,10 +40492,10 @@
     </row>
     <row r="800" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A800" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B800" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C800" t="s">
         <v>28</v>
@@ -40542,10 +40542,10 @@
     </row>
     <row r="801" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A801" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B801" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C801" t="s">
         <v>28</v>
@@ -40592,7 +40592,7 @@
     </row>
     <row r="802" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A802" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B802" t="s">
         <v>4</v>
@@ -40642,7 +40642,7 @@
     </row>
     <row r="803" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A803" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B803" t="s">
         <v>4</v>
@@ -40692,7 +40692,7 @@
     </row>
     <row r="804" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A804" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B804" t="s">
         <v>4</v>
@@ -40742,7 +40742,7 @@
     </row>
     <row r="805" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A805" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B805" t="s">
         <v>4</v>
@@ -40792,7 +40792,7 @@
     </row>
     <row r="806" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A806" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B806" t="s">
         <v>4</v>
@@ -40842,7 +40842,7 @@
     </row>
     <row r="807" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A807" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B807" t="s">
         <v>4</v>
@@ -40892,7 +40892,7 @@
     </row>
     <row r="808" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A808" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B808" t="s">
         <v>4</v>
@@ -40942,7 +40942,7 @@
     </row>
     <row r="809" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A809" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B809" t="s">
         <v>4</v>
@@ -40992,7 +40992,7 @@
     </row>
     <row r="810" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A810" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B810" t="s">
         <v>4</v>
@@ -41042,7 +41042,7 @@
     </row>
     <row r="811" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A811" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B811" t="s">
         <v>4</v>
@@ -41092,7 +41092,7 @@
     </row>
     <row r="812" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A812" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B812" t="s">
         <v>4</v>
@@ -41142,7 +41142,7 @@
     </row>
     <row r="813" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A813" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B813" t="s">
         <v>4</v>
@@ -41192,7 +41192,7 @@
     </row>
     <row r="814" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A814" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B814" t="s">
         <v>4</v>
@@ -41242,7 +41242,7 @@
     </row>
     <row r="815" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A815" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B815" t="s">
         <v>4</v>
@@ -41292,7 +41292,7 @@
     </row>
     <row r="816" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A816" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B816" t="s">
         <v>4</v>
@@ -41342,7 +41342,7 @@
     </row>
     <row r="817" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A817" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B817" t="s">
         <v>4</v>
@@ -41392,7 +41392,7 @@
     </row>
     <row r="818" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A818" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B818" t="s">
         <v>4</v>
@@ -41442,7 +41442,7 @@
     </row>
     <row r="819" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A819" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B819" t="s">
         <v>4</v>
@@ -41492,7 +41492,7 @@
     </row>
     <row r="820" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A820" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B820" t="s">
         <v>4</v>
@@ -41542,7 +41542,7 @@
     </row>
     <row r="821" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A821" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B821" t="s">
         <v>4</v>
@@ -41592,7 +41592,7 @@
     </row>
     <row r="822" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A822" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B822" t="s">
         <v>4</v>
@@ -41642,7 +41642,7 @@
     </row>
     <row r="823" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A823" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B823" t="s">
         <v>4</v>
@@ -41692,7 +41692,7 @@
     </row>
     <row r="824" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A824" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B824" t="s">
         <v>4</v>
@@ -41742,7 +41742,7 @@
     </row>
     <row r="825" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A825" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B825" t="s">
         <v>4</v>
@@ -41792,7 +41792,7 @@
     </row>
     <row r="826" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A826" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B826" t="s">
         <v>4</v>
@@ -41842,7 +41842,7 @@
     </row>
     <row r="827" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A827" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B827" t="s">
         <v>4</v>
@@ -41892,7 +41892,7 @@
     </row>
     <row r="828" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A828" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B828" t="s">
         <v>4</v>
@@ -41942,7 +41942,7 @@
     </row>
     <row r="829" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A829" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B829" t="s">
         <v>4</v>
@@ -41992,7 +41992,7 @@
     </row>
     <row r="830" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A830" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B830" t="s">
         <v>4</v>
@@ -42042,7 +42042,7 @@
     </row>
     <row r="831" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A831" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B831" t="s">
         <v>4</v>
@@ -42092,7 +42092,7 @@
     </row>
     <row r="832" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A832" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B832" t="s">
         <v>4</v>
@@ -42142,7 +42142,7 @@
     </row>
     <row r="833" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A833" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B833" t="s">
         <v>4</v>
@@ -42192,7 +42192,7 @@
     </row>
     <row r="834" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A834" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B834" t="s">
         <v>4</v>
@@ -42242,7 +42242,7 @@
     </row>
     <row r="835" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A835" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B835" t="s">
         <v>4</v>
@@ -42292,7 +42292,7 @@
     </row>
     <row r="836" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A836" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B836" t="s">
         <v>4</v>
@@ -42342,7 +42342,7 @@
     </row>
     <row r="837" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A837" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B837" t="s">
         <v>4</v>
@@ -42392,7 +42392,7 @@
     </row>
     <row r="838" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A838" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B838" t="s">
         <v>4</v>
@@ -42442,7 +42442,7 @@
     </row>
     <row r="839" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A839" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B839" t="s">
         <v>4</v>
@@ -42492,7 +42492,7 @@
     </row>
     <row r="840" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A840" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B840" t="s">
         <v>4</v>
@@ -42542,7 +42542,7 @@
     </row>
     <row r="841" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A841" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B841" t="s">
         <v>4</v>
@@ -42592,7 +42592,7 @@
     </row>
     <row r="842" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A842" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B842" t="s">
         <v>4</v>
@@ -42642,7 +42642,7 @@
     </row>
     <row r="843" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A843" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B843" t="s">
         <v>4</v>
@@ -42692,7 +42692,7 @@
     </row>
     <row r="844" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A844" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B844" t="s">
         <v>4</v>
@@ -42742,7 +42742,7 @@
     </row>
     <row r="845" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A845" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B845" t="s">
         <v>4</v>
@@ -42792,7 +42792,7 @@
     </row>
     <row r="846" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A846" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B846" t="s">
         <v>4</v>
@@ -42842,7 +42842,7 @@
     </row>
     <row r="847" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A847" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B847" t="s">
         <v>4</v>
@@ -42892,7 +42892,7 @@
     </row>
     <row r="848" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A848" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B848" t="s">
         <v>4</v>
@@ -42942,7 +42942,7 @@
     </row>
     <row r="849" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A849" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B849" t="s">
         <v>4</v>
@@ -42992,7 +42992,7 @@
     </row>
     <row r="850" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A850" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B850" t="s">
         <v>4</v>
@@ -43042,7 +43042,7 @@
     </row>
     <row r="851" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A851" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B851" t="s">
         <v>4</v>
@@ -43092,10 +43092,10 @@
     </row>
     <row r="852" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A852" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B852" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C852" t="s">
         <v>27</v>
@@ -43142,10 +43142,10 @@
     </row>
     <row r="853" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A853" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B853" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C853" t="s">
         <v>27</v>
@@ -43192,10 +43192,10 @@
     </row>
     <row r="854" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A854" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B854" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C854" t="s">
         <v>27</v>
@@ -43242,10 +43242,10 @@
     </row>
     <row r="855" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A855" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B855" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C855" t="s">
         <v>27</v>
@@ -43292,10 +43292,10 @@
     </row>
     <row r="856" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A856" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B856" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C856" t="s">
         <v>27</v>
@@ -43342,10 +43342,10 @@
     </row>
     <row r="857" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A857" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B857" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C857" t="s">
         <v>27</v>
@@ -43392,10 +43392,10 @@
     </row>
     <row r="858" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A858" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B858" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C858" t="s">
         <v>27</v>
@@ -43442,10 +43442,10 @@
     </row>
     <row r="859" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A859" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B859" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C859" t="s">
         <v>27</v>
@@ -43492,10 +43492,10 @@
     </row>
     <row r="860" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A860" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B860" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C860" t="s">
         <v>27</v>
@@ -43542,10 +43542,10 @@
     </row>
     <row r="861" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A861" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B861" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C861" t="s">
         <v>27</v>
@@ -43592,10 +43592,10 @@
     </row>
     <row r="862" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A862" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B862" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C862" t="s">
         <v>30</v>
@@ -43642,10 +43642,10 @@
     </row>
     <row r="863" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A863" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B863" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C863" t="s">
         <v>30</v>
@@ -43692,10 +43692,10 @@
     </row>
     <row r="864" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A864" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B864" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C864" t="s">
         <v>30</v>
@@ -43742,10 +43742,10 @@
     </row>
     <row r="865" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A865" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B865" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C865" t="s">
         <v>30</v>
@@ -43792,10 +43792,10 @@
     </row>
     <row r="866" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A866" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B866" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C866" t="s">
         <v>30</v>
@@ -43842,10 +43842,10 @@
     </row>
     <row r="867" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A867" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B867" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C867" t="s">
         <v>30</v>
@@ -43892,10 +43892,10 @@
     </row>
     <row r="868" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A868" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B868" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C868" t="s">
         <v>30</v>
@@ -43942,10 +43942,10 @@
     </row>
     <row r="869" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A869" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B869" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C869" t="s">
         <v>30</v>
@@ -43992,10 +43992,10 @@
     </row>
     <row r="870" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A870" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B870" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C870" t="s">
         <v>30</v>
@@ -44042,10 +44042,10 @@
     </row>
     <row r="871" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A871" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B871" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C871" t="s">
         <v>30</v>
@@ -44092,10 +44092,10 @@
     </row>
     <row r="872" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A872" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B872" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C872" t="s">
         <v>29</v>
@@ -44142,10 +44142,10 @@
     </row>
     <row r="873" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A873" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B873" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C873" t="s">
         <v>29</v>
@@ -44192,10 +44192,10 @@
     </row>
     <row r="874" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A874" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B874" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C874" t="s">
         <v>29</v>
@@ -44242,10 +44242,10 @@
     </row>
     <row r="875" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A875" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B875" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C875" t="s">
         <v>29</v>
@@ -44292,10 +44292,10 @@
     </row>
     <row r="876" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A876" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B876" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C876" t="s">
         <v>29</v>
@@ -44342,10 +44342,10 @@
     </row>
     <row r="877" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A877" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B877" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C877" t="s">
         <v>29</v>
@@ -44392,10 +44392,10 @@
     </row>
     <row r="878" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A878" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B878" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C878" t="s">
         <v>29</v>
@@ -44442,10 +44442,10 @@
     </row>
     <row r="879" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A879" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B879" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C879" t="s">
         <v>29</v>
@@ -44492,10 +44492,10 @@
     </row>
     <row r="880" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A880" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B880" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C880" t="s">
         <v>29</v>
@@ -44542,10 +44542,10 @@
     </row>
     <row r="881" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A881" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B881" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C881" t="s">
         <v>29</v>
@@ -44592,10 +44592,10 @@
     </row>
     <row r="882" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A882" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B882" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C882" t="s">
         <v>4</v>
@@ -44642,10 +44642,10 @@
     </row>
     <row r="883" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A883" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B883" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C883" t="s">
         <v>4</v>
@@ -44692,10 +44692,10 @@
     </row>
     <row r="884" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A884" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B884" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C884" t="s">
         <v>4</v>
@@ -44742,10 +44742,10 @@
     </row>
     <row r="885" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A885" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B885" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C885" t="s">
         <v>4</v>
@@ -44792,10 +44792,10 @@
     </row>
     <row r="886" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A886" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B886" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C886" t="s">
         <v>4</v>
@@ -44842,10 +44842,10 @@
     </row>
     <row r="887" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A887" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B887" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C887" t="s">
         <v>4</v>
@@ -44892,10 +44892,10 @@
     </row>
     <row r="888" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A888" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B888" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C888" t="s">
         <v>4</v>
@@ -44942,10 +44942,10 @@
     </row>
     <row r="889" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A889" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B889" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C889" t="s">
         <v>4</v>
@@ -44992,10 +44992,10 @@
     </row>
     <row r="890" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A890" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B890" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C890" t="s">
         <v>4</v>
@@ -45042,10 +45042,10 @@
     </row>
     <row r="891" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A891" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B891" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C891" t="s">
         <v>4</v>
@@ -45092,10 +45092,10 @@
     </row>
     <row r="892" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A892" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B892" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C892" t="s">
         <v>28</v>
@@ -45142,10 +45142,10 @@
     </row>
     <row r="893" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A893" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B893" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C893" t="s">
         <v>28</v>
@@ -45192,10 +45192,10 @@
     </row>
     <row r="894" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A894" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B894" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C894" t="s">
         <v>28</v>
@@ -45242,10 +45242,10 @@
     </row>
     <row r="895" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A895" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B895" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C895" t="s">
         <v>28</v>
@@ -45292,10 +45292,10 @@
     </row>
     <row r="896" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A896" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B896" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C896" t="s">
         <v>28</v>
@@ -45342,10 +45342,10 @@
     </row>
     <row r="897" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A897" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B897" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C897" t="s">
         <v>28</v>
@@ -45392,10 +45392,10 @@
     </row>
     <row r="898" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A898" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B898" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C898" t="s">
         <v>28</v>
@@ -45442,10 +45442,10 @@
     </row>
     <row r="899" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A899" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B899" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C899" t="s">
         <v>28</v>
@@ -45492,10 +45492,10 @@
     </row>
     <row r="900" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A900" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B900" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C900" t="s">
         <v>28</v>
@@ -45542,10 +45542,10 @@
     </row>
     <row r="901" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A901" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B901" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C901" t="s">
         <v>28</v>
@@ -45591,7 +45591,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1" xr:uid="{39BC329D-FEAE-4DD7-AC12-FD8CC6C2F9D9}"/>
+  <autoFilter ref="A1:P901" xr:uid="{39BC329D-FEAE-4DD7-AC12-FD8CC6C2F9D9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>